--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.41</v>
+        <v>-0.152</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.547</v>
+        <v>27.886</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.292</v>
+        <v>-0.036</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.876</v>
+        <v>28.883</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.413</v>
+        <v>-0.031</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.613</v>
+        <v>27.331</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>23.14942701722703</v>
+        <v>28.16611629367841</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>41.34176874496652</v>
+        <v>28.16611631431364</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>45.72693779052441</v>
+        <v>28.16611632006189</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>18.06581530861017</v>
+        <v>28.1661162968942</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>38.12457088749221</v>
+        <v>28.16611631970731</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>42.97836214230961</v>
+        <v>28.16611632606223</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>33.3014505817958</v>
+        <v>28.16611630499591</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50.80067822856986</v>
+        <v>28.16611632496171</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>55.03680243280471</v>
+        <v>28.16611633052348</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>52.37277144729605</v>
+        <v>28.16611632496692</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>63.41872014576618</v>
+        <v>28.16611634704923</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>66.72980192545629</v>
+        <v>28.16611635336535</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.4090723214554</v>
+        <v>28.16611632224179</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>57.16139898162329</v>
+        <v>28.1661163536439</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>63.86245656442905</v>
+        <v>28.16611636239142</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>26.90774408957401</v>
+        <v>28.16611632730056</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>47.96428390067381</v>
+        <v>28.16611634926291</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>53.07666539404764</v>
+        <v>28.16611635540293</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17.70529592452848</v>
+        <v>28.16611633140382</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>40.92984640387988</v>
+        <v>28.1661163556841</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>46.58742191811137</v>
+        <v>28.16611636247216</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35.24082012081787</v>
+        <v>28.16611634074191</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>55.50852665241182</v>
+        <v>28.16611636199177</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>60.44582325901872</v>
+        <v>28.16611636793261</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>58.48785853879365</v>
+        <v>28.16611636147162</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>72.30860135388409</v>
+        <v>28.16611638505356</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>76.7704439539819</v>
+        <v>28.16611639180418</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>33.96854806898217</v>
+        <v>28.16611635744803</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>66.08209183829268</v>
+        <v>28.16611639086971</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>73.89568560880815</v>
+        <v>28.16611640021343</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.24223582524279</v>
+        <v>28.16611637266719</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>53.98489923786332</v>
+        <v>28.16611639384863</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>60.06346976045264</v>
+        <v>28.16611639987476</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>21.39253088846018</v>
+        <v>28.16611637751704</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>46.48313093820519</v>
+        <v>28.16611640093399</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>53.20921434259585</v>
+        <v>28.16611640759614</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>41.59341722586121</v>
+        <v>28.16611638729046</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>63.4959817616722</v>
+        <v>28.16611640778474</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>69.36680189603791</v>
+        <v>28.16611641361538</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>68.9083850987339</v>
+        <v>28.16611640656238</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>84.11820787207705</v>
+        <v>28.16611642933506</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>90.18007715420313</v>
+        <v>28.16611643585624</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>43.6020674131535</v>
+        <v>28.16611640119557</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>78.28011033756061</v>
+        <v>28.16611643342888</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>87.56826062560387</v>
+        <v>28.16611644259928</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>19.08777168816471</v>
+        <v>28.16611628527016</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>38.323386672986</v>
+        <v>28.16611630617739</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.25403243761676</v>
+        <v>28.16611631186789</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>15.1911934866364</v>
+        <v>28.16611628782824</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>36.40258258067493</v>
+        <v>28.16611631094205</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>40.75347061002347</v>
+        <v>28.16611631723313</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>30.07457123435387</v>
+        <v>28.1661162959116</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>48.57997497835086</v>
+        <v>28.16611631614057</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>52.37576230550146</v>
+        <v>28.16611632164646</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>47.09146126035724</v>
+        <v>28.1661163158355</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>58.98521646847702</v>
+        <v>28.16611633814701</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>61.68533560272458</v>
+        <v>28.16611634437362</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>20.86222433556448</v>
+        <v>28.16611631311963</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>50.2075018707946</v>
+        <v>28.16611634493567</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>56.21648131910491</v>
+        <v>28.16611635359531</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>21.4271413100265</v>
+        <v>28.16611631865858</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>43.57290416554908</v>
+        <v>28.16611634089916</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>48.32484133011977</v>
+        <v>28.16611634699395</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>14.13338324894696</v>
+        <v>28.16611632212851</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>38.56127411767507</v>
+        <v>28.16611634671639</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>43.81988144808867</v>
+        <v>28.16611635345443</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>31.29494328415984</v>
+        <v>28.16611633147038</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>52.61308194985061</v>
+        <v>28.16611635298944</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>57.20092971971802</v>
+        <v>28.16611635888651</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>52.85540809259255</v>
+        <v>28.16611635220755</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>67.58774380330686</v>
+        <v>28.16611637601597</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>71.56257253009957</v>
+        <v>28.166116382688</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.28193040855719</v>
+        <v>28.16611634821327</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>59.05841937947257</v>
+        <v>28.16611638205835</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>66.3233369368736</v>
+        <v>28.16611639133322</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>26.31456120452068</v>
+        <v>28.16611636556571</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>50.34557200914822</v>
+        <v>28.16611638702703</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>56.15722408814713</v>
+        <v>28.16611639301072</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>18.46056841553068</v>
+        <v>28.16611636989658</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>44.97462343384495</v>
+        <v>28.16611639362296</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>51.40506835810724</v>
+        <v>28.16611640023818</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>38.58938961917544</v>
+        <v>28.16611637971295</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>61.73499796255872</v>
+        <v>28.16611640047804</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>67.34668721760141</v>
+        <v>28.16611640626761</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>64.40672616096673</v>
+        <v>28.16611639902625</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>80.75482141732192</v>
+        <v>28.16611642202512</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>86.4483153657211</v>
+        <v>28.16611642847624</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>36.0656377401106</v>
+        <v>28.16611639366073</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>72.70982793426323</v>
+        <v>28.16611642631997</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>81.59187370134697</v>
+        <v>28.16611643542578</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>19.08777168816471</v>
+        <v>28.16611628527016</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>38.323386672986</v>
+        <v>28.16611630617739</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>42.25403243761676</v>
+        <v>28.16611631186789</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>15.1911934866364</v>
+        <v>28.16611628782824</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.40258258067493</v>
+        <v>28.16611631094205</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>40.75347061002347</v>
+        <v>28.16611631723313</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>30.07457123435387</v>
+        <v>28.1661162959116</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>48.57997497835086</v>
+        <v>28.16611631614057</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>52.37576230550146</v>
+        <v>28.16611632164646</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>47.09146126035724</v>
+        <v>28.1661163158355</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>58.98521646847702</v>
+        <v>28.16611633814701</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>61.68533560272458</v>
+        <v>28.16611634437362</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20.86222433556448</v>
+        <v>28.16611631311963</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>50.2075018707946</v>
+        <v>28.16611634493567</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>56.21648131910491</v>
+        <v>28.16611635359531</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>21.4271413100265</v>
+        <v>28.16611631865858</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>43.57290416554908</v>
+        <v>28.16611634089916</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>48.32484133011977</v>
+        <v>28.16611634699395</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>14.13338324894696</v>
+        <v>28.16611632212851</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>38.56127411767507</v>
+        <v>28.16611634671639</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>43.81988144808867</v>
+        <v>28.16611635345443</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>31.29494328415984</v>
+        <v>28.16611633147038</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>52.61308194985061</v>
+        <v>28.16611635298944</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>57.20092971971802</v>
+        <v>28.16611635888651</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>52.85540809259255</v>
+        <v>28.16611635220755</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>67.58774380330686</v>
+        <v>28.16611637601597</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>71.56257253009957</v>
+        <v>28.166116382688</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>25.28193040855719</v>
+        <v>28.16611634821327</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>59.05841937947257</v>
+        <v>28.16611638205835</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>66.3233369368736</v>
+        <v>28.16611639133322</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.31456120452068</v>
+        <v>28.16611636556571</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>50.34557200914822</v>
+        <v>28.16611638702703</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>56.15722408814713</v>
+        <v>28.16611639301072</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>18.46056841553068</v>
+        <v>28.16611636989658</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>44.97462343384495</v>
+        <v>28.16611639362296</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>51.40506835810724</v>
+        <v>28.16611640023818</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>38.58938961917544</v>
+        <v>28.16611637971295</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>61.73499796255872</v>
+        <v>28.16611640047804</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>67.34668721760141</v>
+        <v>28.16611640626761</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>64.40672616096673</v>
+        <v>28.16611639902625</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>80.75482141732192</v>
+        <v>28.16611642202512</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>86.4483153657211</v>
+        <v>28.16611642847624</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>36.0656377401106</v>
+        <v>28.16611639366073</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>72.70982793426323</v>
+        <v>28.16611642631997</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>81.59187370134697</v>
+        <v>28.16611643542578</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>16.11363345681694</v>
+        <v>28.16611628786205</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>33.79683168367904</v>
+        <v>28.16611630860524</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>38.07004385739626</v>
+        <v>28.16611631438361</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9.852633396504249</v>
+        <v>28.16611629070757</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.34823312668999</v>
+        <v>28.16611631364003</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>34.07812584049753</v>
+        <v>28.16611632002826</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>24.76513693233947</v>
+        <v>28.16611629878123</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>41.7714775800186</v>
+        <v>28.16611631885149</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>45.89916855700771</v>
+        <v>28.1661163244424</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>43.26028084847644</v>
+        <v>28.16611631892768</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>53.77631745572246</v>
+        <v>28.16611634112455</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>56.99049132300819</v>
+        <v>28.16611634747453</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>20.4527666565817</v>
+        <v>28.16611631637009</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>47.42958623747911</v>
+        <v>28.16611634793649</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>53.96000528405148</v>
+        <v>28.16611635672986</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>20.92178044804721</v>
+        <v>28.166116321799</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>41.48925546954927</v>
+        <v>28.16611634387948</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>46.4963548380907</v>
+        <v>28.16611635005447</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>10.67062773620706</v>
+        <v>28.16611632553882</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>33.35419462522361</v>
+        <v>28.1661163499497</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>38.8952318541345</v>
+        <v>28.16611635677642</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>27.92180831487646</v>
+        <v>28.16611633486072</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>47.71600243467765</v>
+        <v>28.16611635622488</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>52.55129961560174</v>
+        <v>28.16611636219955</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>50.63728704009354</v>
+        <v>28.16611635577204</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>63.95324234943962</v>
+        <v>28.16611637947953</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>68.33167374366869</v>
+        <v>28.16611638626918</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>26.24194720473719</v>
+        <v>28.16611635190375</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>57.61057351872711</v>
+        <v>28.16611638550519</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>65.26368365200778</v>
+        <v>28.16611639490213</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.97005871429162</v>
+        <v>28.16611636818446</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>49.2965353359974</v>
+        <v>28.16611638948542</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>55.29306413144098</v>
+        <v>28.16611639554464</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>16.07596866685642</v>
+        <v>28.16611637271712</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.70612530046081</v>
+        <v>28.16611639626621</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>47.34134200501939</v>
+        <v>28.16611640296493</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>36.1070707813164</v>
+        <v>28.16611638249385</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>57.60656861931145</v>
+        <v>28.16611640310379</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>63.39783583527735</v>
+        <v>28.16611640896643</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>62.90758563453895</v>
+        <v>28.16611640193813</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>77.69084814384149</v>
+        <v>28.16611642483724</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>83.69526192453904</v>
+        <v>28.16611643139481</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>37.63624458940728</v>
+        <v>28.16611639669338</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>71.68040157401413</v>
+        <v>28.16611642910857</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>80.84346216729946</v>
+        <v>28.16611643832932</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.63884528698271</v>
+        <v>28.16611629497623</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>44.49976033388653</v>
+        <v>28.1661163155958</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>48.79841595515449</v>
+        <v>28.16611632131537</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>20.26514840636418</v>
+        <v>28.16611629816743</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>41.06305764382769</v>
+        <v>28.16611632096323</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>45.82106667845456</v>
+        <v>28.16611632728645</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>35.92520345709806</v>
+        <v>28.16611630626847</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>54.07083295564536</v>
+        <v>28.16611632621912</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>58.22318716682548</v>
+        <v>28.16611633175314</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>54.92491218943361</v>
+        <v>28.16611632609848</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>66.73273028444592</v>
+        <v>28.16611634815412</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>69.95498828005154</v>
+        <v>28.16611635444111</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>31.48809157136931</v>
+        <v>28.16611632328575</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>60.25932372443083</v>
+        <v>28.16611635466403</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>66.8283761388076</v>
+        <v>28.16611636336791</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>31.18779636969143</v>
+        <v>28.16611632872402</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>52.9340352913854</v>
+        <v>28.16611635067019</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>57.95721268370739</v>
+        <v>28.16611635677989</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>21.85783081440174</v>
+        <v>28.16611633281376</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>45.84488738091292</v>
+        <v>28.16611635707617</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>51.40365582282752</v>
+        <v>28.16611636383069</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>39.86543286783932</v>
+        <v>28.16611634215278</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>60.79995290550888</v>
+        <v>28.16611636338699</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>65.65085659475659</v>
+        <v>28.16611636929847</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>63.14501232309028</v>
+        <v>28.16611636274425</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>77.74456372443774</v>
+        <v>28.16611638629885</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>82.1209959038585</v>
+        <v>28.16611639301854</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>38.14878573739155</v>
+        <v>28.1661163586307</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>71.31346636212237</v>
+        <v>28.16611639202776</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>78.99084001173804</v>
+        <v>28.16611640132531</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>34.50523487586518</v>
+        <v>28.16611637390982</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>57.90310078046381</v>
+        <v>28.16611639507798</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>63.9207018851593</v>
+        <v>28.16611640107596</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>24.41134227984027</v>
+        <v>28.16611637874943</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>50.22628469301861</v>
+        <v>28.16611640215171</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>56.88476798997278</v>
+        <v>28.16611640878273</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>45.0785566577224</v>
+        <v>28.16611638852322</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>67.61456371679429</v>
+        <v>28.16611640900467</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>73.42628316097341</v>
+        <v>28.16611641480806</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>72.45693994007883</v>
+        <v>28.16611640766993</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>88.41824868821067</v>
+        <v>28.16611643041988</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>94.42576966112151</v>
+        <v>28.16611643691244</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>46.75135791287466</v>
+        <v>28.16611640222243</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>82.42793124760098</v>
+        <v>28.16611643443554</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>91.62288432551415</v>
+        <v>28.16611644356309</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>14.07622690282052</v>
+        <v>28.16611629094933</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>33.52483009746746</v>
+        <v>28.16611631172621</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>37.44921413065777</v>
+        <v>28.16611631739084</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>9.018478509765432</v>
+        <v>28.16611629379952</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>30.46519897630232</v>
+        <v>28.16611631676923</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>34.8093486794621</v>
+        <v>28.16611632303171</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>24.17383206902577</v>
+        <v>28.1661163019018</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>42.88537517004811</v>
+        <v>28.16611632200466</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>46.67545978913432</v>
+        <v>28.16611632748552</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>41.82568672913514</v>
+        <v>28.1661163216525</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>54.1024586717005</v>
+        <v>28.16611634383243</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>56.79644358577753</v>
+        <v>28.16611635004223</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>16.55358761249813</v>
+        <v>28.16611631878828</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>46.22294809011704</v>
+        <v>28.16611635040596</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>52.22213788666908</v>
+        <v>28.16611635902623</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>20.25498704568462</v>
+        <v>28.1661163247818</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>42.67617072474536</v>
+        <v>28.16611634689376</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>47.33885250777715</v>
+        <v>28.16611635295391</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>11.67755370899451</v>
+        <v>28.16611632855412</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>36.40982126745949</v>
+        <v>28.16611635299982</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>41.56989851077009</v>
+        <v>28.16611635969956</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.2249262929696</v>
+        <v>28.16611633791439</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>50.80960878829799</v>
+        <v>28.16611635930902</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>55.31149600116949</v>
+        <v>28.16611636517256</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>51.43265799331544</v>
+        <v>28.16611635846635</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>66.60893014221882</v>
+        <v>28.16611638214658</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>70.4804152843121</v>
+        <v>28.16611638879298</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>24.73532627197871</v>
+        <v>28.1661163543095</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>58.93105892928105</v>
+        <v>28.16611638795886</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>66.0595885962687</v>
+        <v>28.16611639718102</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>25.08273507422144</v>
+        <v>28.16611637091843</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>49.32331396700871</v>
+        <v>28.1661163922532</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>55.04382740053827</v>
+        <v>28.16611639820531</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>15.86286400675936</v>
+        <v>28.16611637550826</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>42.60844627466334</v>
+        <v>28.16611639909473</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>48.93831891473427</v>
+        <v>28.16611640567504</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>36.3433452437533</v>
+        <v>28.16611638533033</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>59.6917846078025</v>
+        <v>28.16611640597297</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>65.21573054950088</v>
+        <v>28.16611641173199</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>62.80853113395526</v>
+        <v>28.1661164044665</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>79.53319905245104</v>
+        <v>28.16611642734165</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>85.10044242802593</v>
+        <v>28.16611643376873</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>35.37891196985021</v>
+        <v>28.16611639896336</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>72.34186448060748</v>
+        <v>28.16611643143001</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>81.08470993845259</v>
+        <v>28.16611644048777</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>9.814619338034435</v>
+        <v>28.16611628799933</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>27.74045965655885</v>
+        <v>28.16611630881182</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>31.86178745970027</v>
+        <v>28.16611631454164</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>5.494328624588819</v>
+        <v>28.16611629090542</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>25.25752669731054</v>
+        <v>28.16611631391449</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.81972364323762</v>
+        <v>28.16611632024904</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>19.70509872712749</v>
+        <v>28.16611629900922</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>36.94437329166715</v>
+        <v>28.16611631914652</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>40.92515896521176</v>
+        <v>28.16611632469046</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>37.49304621906033</v>
+        <v>28.16611631908042</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>48.0341655824544</v>
+        <v>28.166116341321</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>50.93060751833839</v>
+        <v>28.166116347597</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>13.24617936062667</v>
+        <v>28.16611631641531</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>40.59484844149578</v>
+        <v>28.16611634808717</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>46.89454677635105</v>
+        <v>28.16611635680663</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>11.96064308922099</v>
+        <v>28.16611632154623</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>32.81100791668972</v>
+        <v>28.16611634369496</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>37.67676190539957</v>
+        <v>28.16611634982406</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>3.752256249429744</v>
+        <v>28.16611632534928</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>26.74788020050917</v>
+        <v>28.16611634983563</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>32.13289440772594</v>
+        <v>28.16611635661159</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>20.24727896849225</v>
+        <v>28.16611633470745</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>40.31326127446989</v>
+        <v>28.16611635613765</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>45.01182377425542</v>
+        <v>28.16611636206791</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>42.35285147912803</v>
+        <v>28.16611635557362</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>55.7549671930704</v>
+        <v>28.16611637931598</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>59.82112581295379</v>
+        <v>28.1661163860327</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>16.68738555718915</v>
+        <v>28.16611635162127</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>48.48910805712636</v>
+        <v>28.16611638532659</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>55.9277466727762</v>
+        <v>28.16611639465367</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>19.03350775922899</v>
+        <v>28.1661163680939</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>41.78237331544076</v>
+        <v>28.16611638945885</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>47.64142753923153</v>
+        <v>28.16611639547495</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>10.44374969827847</v>
+        <v>28.16611637270699</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>35.54020269764808</v>
+        <v>28.16611639632682</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.02368752826038</v>
+        <v>28.16611640297788</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.88394873561072</v>
+        <v>28.16611638252821</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>51.7902121689633</v>
+        <v>28.16611640320005</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>57.44845596206809</v>
+        <v>28.16611640902098</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>56.17805921859632</v>
+        <v>28.166116401949</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>71.19137795639665</v>
+        <v>28.16611642487582</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>76.88233944899417</v>
+        <v>28.16611643136793</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.60566722172319</v>
+        <v>28.16611639662928</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>64.29524235023464</v>
+        <v>28.16611642914184</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>73.24986621419649</v>
+        <v>28.16611643829699</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>23.05982059323298</v>
+        <v>28.16611629127712</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>42.07967200989379</v>
+        <v>28.16611631224475</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>46.36722094613613</v>
+        <v>28.16611631804701</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>17.42568593866871</v>
+        <v>28.1661162943356</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>38.39838920918939</v>
+        <v>28.16611631751619</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>43.14414588329765</v>
+        <v>28.16611632393083</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>33.11271509969762</v>
+        <v>28.16611630254097</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>51.41029238108622</v>
+        <v>28.16611632282838</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>55.55173454989024</v>
+        <v>28.16611632844242</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>51.98712500930238</v>
+        <v>28.16611632270968</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>63.81656381744051</v>
+        <v>28.16611634513229</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>66.99728708176191</v>
+        <v>28.16611635150805</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>27.95388841234146</v>
+        <v>28.16611631991768</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>56.96820095675613</v>
+        <v>28.16611635182563</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>63.52066467266339</v>
+        <v>28.16611636065535</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.95961039268498</v>
+        <v>28.16611632557399</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>50.91988696003799</v>
+        <v>28.16611634789111</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>55.9519169027726</v>
+        <v>28.16611635409162</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>19.41119021243899</v>
+        <v>28.16611632954844</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>43.63393090402204</v>
+        <v>28.16611635422095</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>49.20250129423194</v>
+        <v>28.16611636107588</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>37.4905689724357</v>
+        <v>28.16611633901545</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>58.63027469509839</v>
+        <v>28.16611636060857</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>63.48952506105301</v>
+        <v>28.16611636660794</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>60.74480148960109</v>
+        <v>28.16611635996436</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>75.42459870434519</v>
+        <v>28.16611638391054</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>79.78862867248195</v>
+        <v>28.16611639072767</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>35.13729383752906</v>
+        <v>28.16611635585186</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>68.628959033032</v>
+        <v>28.16611638981342</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>76.32023011442598</v>
+        <v>28.16611639924919</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>32.95271889229342</v>
+        <v>28.16611637185941</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>56.63458508523649</v>
+        <v>28.16611639338762</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>62.68847552218528</v>
+        <v>28.16611639947512</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>22.65420686179863</v>
+        <v>28.16611637661911</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>48.7821973842784</v>
+        <v>28.16611640041944</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>55.48081136960858</v>
+        <v>28.16611640714943</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>43.49895871511375</v>
+        <v>28.1661163865364</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>66.30786847152493</v>
+        <v>28.16611640736621</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>72.15443812487783</v>
+        <v>28.16611641325623</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>70.94262662943626</v>
+        <v>28.1661164060202</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>87.05391149123014</v>
+        <v>28.16611642915007</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>93.08743113504988</v>
+        <v>28.16611643573748</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>44.59159983378073</v>
+        <v>28.16611640054226</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>80.70165604420232</v>
+        <v>28.16611643330328</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>89.95235246263584</v>
+        <v>28.16611644256708</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.87705470371083</v>
+        <v>28.16611629786847</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>42.5777064838577</v>
+        <v>28.16611631848364</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>46.61968123669322</v>
+        <v>28.16611632410223</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>19.91339874725878</v>
+        <v>28.16611630118751</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>41.63895175331116</v>
+        <v>28.16611632397843</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>46.11342910210379</v>
+        <v>28.16611633019001</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>35.13604900729005</v>
+        <v>28.16611630931006</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>54.09180383303196</v>
+        <v>28.16611632925644</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>57.99592028895287</v>
+        <v>28.16611633469276</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>53.27295622207946</v>
+        <v>28.16611632884006</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>65.83507451295009</v>
+        <v>28.16611635084255</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>68.58075130116356</v>
+        <v>28.16611635699478</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.89487837139336</v>
+        <v>28.16611632579939</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>57.94812369897967</v>
+        <v>28.16611635717097</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>64.12680380325949</v>
+        <v>28.16611636572119</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>24.28880846380009</v>
+        <v>28.16611633094741</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>46.90193653665052</v>
+        <v>28.16611635288026</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>51.6639229955336</v>
+        <v>28.16611635888837</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>17.48444476413575</v>
+        <v>28.16611633515652</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>42.42914377649386</v>
+        <v>28.1661163594042</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>47.69935392051995</v>
+        <v>28.16611636604641</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>34.9640853753712</v>
+        <v>28.16611634451737</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>56.73492020719617</v>
+        <v>28.1661163657387</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>61.33317799424712</v>
+        <v>28.1661163715519</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>57.58888586098792</v>
+        <v>28.16611636484267</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>72.99178292619993</v>
+        <v>28.166116388325</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>76.88768119604939</v>
+        <v>28.16611639490729</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.94029723644989</v>
+        <v>28.16611636053697</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>65.42835993733289</v>
+        <v>28.16611639391377</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>72.70855236808282</v>
+        <v>28.16611640305674</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>27.69289831095363</v>
+        <v>28.16611637592413</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>52.07230331651177</v>
+        <v>28.16611639707933</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>57.85173890172882</v>
+        <v>28.16611640297953</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>20.30424899989859</v>
+        <v>28.16611638089698</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>47.20357484698145</v>
+        <v>28.16611640428493</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>53.59895252198775</v>
+        <v>28.16611641080785</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>40.61633644736224</v>
+        <v>28.16611639070036</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>64.09958118060754</v>
+        <v>28.16611641116926</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>69.68086799515342</v>
+        <v>28.16611641687805</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>67.40678248275591</v>
+        <v>28.16611640962439</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>84.28950903875116</v>
+        <v>28.16611643230026</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>89.83219070587259</v>
+        <v>28.16611643866552</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>40.04444877546793</v>
+        <v>28.16611640401058</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>77.21882221280173</v>
+        <v>28.16611643620396</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>86.05184592024821</v>
+        <v>28.16611644518272</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>5.494852903787653</v>
+        <v>28.16611627832004</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>22.37065853851764</v>
+        <v>28.16611629840972</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>26.30684639883626</v>
+        <v>28.16611630392574</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>0.8100528728194902</v>
+        <v>28.16611628031681</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.41539504370648</v>
+        <v>28.16611630252677</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>23.7719689780856</v>
+        <v>28.16611630862497</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>14.02886969578643</v>
+        <v>28.1661162879758</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>30.25713641855669</v>
+        <v>28.16611630741374</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>34.05828549359663</v>
+        <v>28.16611631275082</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.89032543855109</v>
+        <v>28.16611630746251</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>39.46423937597537</v>
+        <v>28.16611632892948</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>42.33759747845648</v>
+        <v>28.16611633496598</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>5.593673143369163</v>
+        <v>28.16611630526694</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>31.34138545259189</v>
+        <v>28.16611633583883</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.3579032417265</v>
+        <v>28.16611634423297</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>7.256823845217735</v>
+        <v>28.16611631026544</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>26.88197308888143</v>
+        <v>28.16611633163772</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.67994647020489</v>
+        <v>28.16611633755026</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-0.6659151093288926</v>
+        <v>28.16611631313646</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>20.97815208331577</v>
+        <v>28.16611633676439</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>26.28732898369906</v>
+        <v>28.16611634330095</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>14.7031585219702</v>
+        <v>28.16611632200413</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>33.58871672372659</v>
+        <v>28.16611634268306</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>38.22121758301417</v>
+        <v>28.16611634840379</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>34.69665176567442</v>
+        <v>28.16611634226696</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>46.95753699325024</v>
+        <v>28.16611636517559</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>51.12617309752792</v>
+        <v>28.16611637164892</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>8.992338973613183</v>
+        <v>28.16611633884335</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>38.92624975553423</v>
+        <v>28.16611637136707</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>46.26044765466369</v>
+        <v>28.16611638036461</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>14.07373850011638</v>
+        <v>28.16611635628588</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>35.58948763047326</v>
+        <v>28.16611637690958</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>41.37081604999357</v>
+        <v>28.1661163827135</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>5.772745070044088</v>
+        <v>28.16611636002311</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.50885074493984</v>
+        <v>28.16611638282346</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>35.90542045857967</v>
+        <v>28.16611638923994</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>24.01824855139941</v>
+        <v>28.16611636935722</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>44.736279446203</v>
+        <v>28.16611638931185</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>50.31882297270184</v>
+        <v>28.16611639492749</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>48.11510539350161</v>
+        <v>28.16611638822285</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>62.01004174620618</v>
+        <v>28.16611641035144</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>67.80555398827055</v>
+        <v>28.16611641660947</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>21.58456288330382</v>
+        <v>28.1661163834412</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>54.39468992169303</v>
+        <v>28.16611641482576</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>63.22945576656838</v>
+        <v>28.16611642365801</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>14.18221470878905</v>
+        <v>28.16611628131856</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>32.6073676274855</v>
+        <v>28.16611630173648</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.32640097111464</v>
+        <v>28.166116307294</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>8.998458067051345</v>
+        <v>28.16611628338727</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.31537662113244</v>
+        <v>28.16611630596013</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>33.43187167049437</v>
+        <v>28.1661163121042</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>23.35916124888575</v>
+        <v>28.1661162912062</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>41.08334452368655</v>
+        <v>28.16611631096174</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>44.67435544156723</v>
+        <v>28.16611631633897</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>39.36358720234658</v>
+        <v>28.16611631072335</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>50.61934294638239</v>
+        <v>28.16611633251542</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>53.19715825370891</v>
+        <v>28.16611633860055</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>13.82833577075592</v>
+        <v>28.1661163082505</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>41.9378096655047</v>
+        <v>28.16611633932192</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>47.62353929853725</v>
+        <v>28.1661163477792</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>19.67374375395045</v>
+        <v>28.16611631422148</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>40.95853984255292</v>
+        <v>28.16611633594567</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>45.50031836598154</v>
+        <v>28.16611634190118</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>11.46815695192788</v>
+        <v>28.16611631719809</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.94572610513829</v>
+        <v>28.16611634121508</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>39.97154429585228</v>
+        <v>28.16611634779915</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.12780993639171</v>
+        <v>28.16611632625284</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>48.61587909513874</v>
+        <v>28.16611634727228</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>53.00040466084869</v>
+        <v>28.16611635303459</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>48.58865701579259</v>
+        <v>28.16611634656498</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>62.6337251720346</v>
+        <v>28.16611636982409</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>66.48306735508638</v>
+        <v>28.16611637634751</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>21.6387542429823</v>
+        <v>28.16611634283289</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>54.10255106775253</v>
+        <v>28.16611637589214</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>61.04628886107665</v>
+        <v>28.16611638495508</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>25.46064969182097</v>
+        <v>28.16611636072788</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>48.62444609666417</v>
+        <v>28.16611638169657</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>54.22564896316349</v>
+        <v>28.16611638754382</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>16.67300903108685</v>
+        <v>28.1661163645879</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>42.22975437108494</v>
+        <v>28.16611638776966</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>48.42706137828692</v>
+        <v>28.16611639423404</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>36.29224928728456</v>
+        <v>28.16611637411976</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>58.6016024387895</v>
+        <v>28.1661163944082</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>64.0096944058387</v>
+        <v>28.16611640006576</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>60.95372732536295</v>
+        <v>28.16611639303871</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>76.62890526642911</v>
+        <v>28.16611641551331</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>82.18643366743802</v>
+        <v>28.16611642182051</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>33.24271395414038</v>
+        <v>28.16611638794337</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>68.56483925927168</v>
+        <v>28.16611641985294</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>77.12514332164911</v>
+        <v>28.16611642875112</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>5.055171558665913</v>
+        <v>28.16611627910796</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>21.98986004730954</v>
+        <v>28.16611629928466</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>25.70479964663146</v>
+        <v>28.16611630480363</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>0.171306629872781</v>
+        <v>28.16611628108992</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>18.84084474757923</v>
+        <v>28.16611630339609</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.95303352398609</v>
+        <v>28.16611630949755</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>13.40869131257451</v>
+        <v>28.16611628878986</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.6925152860748</v>
+        <v>28.166116308312</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>33.27982879699277</v>
+        <v>28.16611631365193</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.00358310566289</v>
+        <v>28.16611630826196</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.75292748294663</v>
+        <v>28.16611632980347</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>41.30531163750997</v>
+        <v>28.16611633583946</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>4.634806543444519</v>
+        <v>28.166116305991</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>30.47285416182789</v>
+        <v>28.16611633669532</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>36.15251094967267</v>
+        <v>28.16611634509394</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>6.161125388554936</v>
+        <v>28.16611631128401</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>25.88152782507455</v>
+        <v>28.16611633275052</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>30.39879504344235</v>
+        <v>28.16611633866523</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-1.996864008298786</v>
+        <v>28.16611631413377</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>19.75161025146393</v>
+        <v>28.16611633786588</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>24.7506025592614</v>
+        <v>28.16611634440484</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>13.40636341054368</v>
+        <v>28.16611632305196</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>32.3826155664964</v>
+        <v>28.16611634382207</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>36.74374014062661</v>
+        <v>28.16611634954491</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>33.28708362432548</v>
+        <v>28.16611634330888</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>45.76638408077429</v>
+        <v>28.16611636629759</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>49.55705477077454</v>
+        <v>28.16611637276921</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.606569705676719</v>
+        <v>28.16611633980295</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>37.68629485560872</v>
+        <v>28.16611637247007</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>44.59293475035112</v>
+        <v>28.16611638147092</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>14.46724470795001</v>
+        <v>28.1661163577691</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>36.1388406501374</v>
+        <v>28.16611637848793</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>41.66711119282726</v>
+        <v>28.1661163842912</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>5.940932908005806</v>
+        <v>28.16611636150206</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.84838947078241</v>
+        <v>28.16611638440758</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>35.96533476160674</v>
+        <v>28.16611639082334</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>24.35226701235351</v>
+        <v>28.16611637090151</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>45.21955298065721</v>
+        <v>28.1661163909482</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>50.55742827010929</v>
+        <v>28.1661163965632</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>48.29569800435559</v>
+        <v>28.16611638976847</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>62.46679971349234</v>
+        <v>28.16611641197752</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>67.90006306428177</v>
+        <v>28.16611641823172</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>21.66298961612511</v>
+        <v>28.16611638489474</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>54.71113716248529</v>
+        <v>28.16611641642406</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>63.16055811623083</v>
+        <v>28.16611642525532</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1.709977947715366</v>
+        <v>28.16611627445281</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.14952264003356</v>
+        <v>28.16611629405679</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>17.62815867763642</v>
+        <v>28.1661162994232</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-8.008889756571115</v>
+        <v>28.16611627587962</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>9.473733324955941</v>
+        <v>28.16611629755264</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>13.32420574601164</v>
+        <v>28.16611630348543</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.512728486888903</v>
+        <v>28.16611628327136</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.7597353329887</v>
+        <v>28.16611630223936</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>23.11840910900494</v>
+        <v>28.16611630743168</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>18.93602313158229</v>
+        <v>28.16611630228512</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>27.8007367077702</v>
+        <v>28.16611632321929</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>30.21395833332823</v>
+        <v>28.16611632909202</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-4.515750588301678</v>
+        <v>28.16611630030797</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.68298015986278</v>
+        <v>28.16611633014076</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.00169006522474</v>
+        <v>28.16611633830721</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>2.400543770252533</v>
+        <v>28.16611630600493</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.98099716394793</v>
+        <v>28.16611632686667</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.26125408959579</v>
+        <v>28.16611633262156</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-6.783322892183904</v>
+        <v>28.16611630829057</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>13.70662422018197</v>
+        <v>28.16611633135409</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>18.44312116026142</v>
+        <v>28.16611633771635</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.911936896288562</v>
+        <v>28.16611631687328</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.78873930288652</v>
+        <v>28.16611633705825</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.92059931896548</v>
+        <v>28.16611634262644</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>26.50442914509356</v>
+        <v>28.16611633665034</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>38.03740676474307</v>
+        <v>28.16611635899615</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>41.68156447487106</v>
+        <v>28.16611636529627</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>1.674504353627334</v>
+        <v>28.16611633346234</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.01630921143076</v>
+        <v>28.16611636520916</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>36.56077340390488</v>
+        <v>28.16611637396678</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>12.01332652998264</v>
+        <v>28.16611635204112</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.54632326902448</v>
+        <v>28.16611637218254</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>37.83171238837891</v>
+        <v>28.16611637782878</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>2.462198340456439</v>
+        <v>28.16611635523495</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.11252901061576</v>
+        <v>28.16611637750214</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.9604569786179</v>
+        <v>28.16611638374429</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>20.16283931413362</v>
+        <v>28.1661163643023</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>39.93181294323549</v>
+        <v>28.16611638379031</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>45.0347537411894</v>
+        <v>28.16611638925338</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>42.7392598103237</v>
+        <v>28.16611638272393</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>55.9871429389127</v>
+        <v>28.16611640431856</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>61.25468377997902</v>
+        <v>28.16611641040635</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>16.94194097254665</v>
+        <v>28.16611637817655</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>48.25439929932767</v>
+        <v>28.1661164088272</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>56.33256515684591</v>
+        <v>28.16611641741948</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.19250125737423</v>
+        <v>28.16611628957394</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>38.33448602481714</v>
+        <v>28.16611631056212</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>42.73559999566196</v>
+        <v>28.16611631640202</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>14.96114016817972</v>
+        <v>28.1661162926647</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>34.96330061695946</v>
+        <v>28.16611631586801</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>39.83479035985428</v>
+        <v>28.16611632232426</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>30.09717833265945</v>
+        <v>28.16611630087094</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>47.54599992804202</v>
+        <v>28.16611632117824</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>51.79740661139975</v>
+        <v>28.16611632682869</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>49.05791141167488</v>
+        <v>28.16611632122468</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>59.88686834631906</v>
+        <v>28.16611634368232</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>63.18426245917144</v>
+        <v>28.16611635009629</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>25.63097927060834</v>
+        <v>28.16611631854764</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>53.30742297285598</v>
+        <v>28.16611635048687</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>60.03316955109002</v>
+        <v>28.16611635937387</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>23.75414637576866</v>
+        <v>28.16611632370593</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>44.80883517058203</v>
+        <v>28.16611634604428</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>49.95796129386749</v>
+        <v>28.1661163522846</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>14.39557004023443</v>
+        <v>28.16611632769813</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>37.61712495509185</v>
+        <v>28.1661163523941</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>43.31539819633073</v>
+        <v>28.16611635929304</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.86160382184415</v>
+        <v>28.16611633716392</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>52.12576977453786</v>
+        <v>28.16611635877759</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>57.09842693187935</v>
+        <v>28.16611636481547</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>55.06510611482263</v>
+        <v>28.16611635829424</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>68.72220187629435</v>
+        <v>28.16611638227629</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>73.19841605645696</v>
+        <v>28.16611638913402</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>30.06831035149043</v>
+        <v>28.16611635429981</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>62.17981282709123</v>
+        <v>28.16611638829368</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>70.04989845534678</v>
+        <v>28.16611639779002</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.06239380380626</v>
+        <v>28.16611637022866</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>51.88412173389695</v>
+        <v>28.1661163917743</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>58.01797089876042</v>
+        <v>28.16611639789875</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>19.10559026108668</v>
+        <v>28.16611637500179</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>44.28267584753493</v>
+        <v>28.16611639882138</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>51.06994572181284</v>
+        <v>28.16611640559222</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>39.34425517770976</v>
+        <v>28.1661163849186</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>61.32159163574936</v>
+        <v>28.16611640576527</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>67.24567024138264</v>
+        <v>28.16611641169103</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>66.69705272777388</v>
+        <v>28.16611640456673</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>81.82167819306164</v>
+        <v>28.16611642772642</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>87.92653639493193</v>
+        <v>28.16611643435137</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>40.85540865703061</v>
+        <v>28.16611639919467</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>75.65461115742382</v>
+        <v>28.16611643198221</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>85.02753349601264</v>
+        <v>28.16611644130223</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>20.29393760156838</v>
+        <v>28.1661162813453</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.25712833602191</v>
+        <v>28.16611630156794</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>42.10637523081406</v>
+        <v>28.16611630708618</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>16.48124727815379</v>
+        <v>28.1661162834641</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>36.28825330591275</v>
+        <v>28.16611630582106</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>40.54870768937688</v>
+        <v>28.16611631192171</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>30.50828303701626</v>
+        <v>28.16611629120712</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>47.7870454673774</v>
+        <v>28.16611631077371</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>51.50402615414823</v>
+        <v>28.16611631611293</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>46.40107612141567</v>
+        <v>28.16611631062721</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>57.14699506766675</v>
+        <v>28.16611633221732</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>59.87844322029056</v>
+        <v>28.16611633825377</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>20.89184302823889</v>
+        <v>28.16611630823666</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>48.2970583352706</v>
+        <v>28.1661163390109</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>54.18120655663369</v>
+        <v>28.1661163474084</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>21.78824313131781</v>
+        <v>28.16611631341442</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>42.53031527218302</v>
+        <v>28.1661163349243</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>47.23324964626829</v>
+        <v>28.16611634083927</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>14.82189390280568</v>
+        <v>28.16611631641335</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>37.70028723850853</v>
+        <v>28.16611634019341</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>42.90432377724578</v>
+        <v>28.16611634673266</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>31.01050512063713</v>
+        <v>28.16611632537159</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>50.97509977878677</v>
+        <v>28.16611634618366</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>55.5155564280765</v>
+        <v>28.16611635190674</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>51.20444272976236</v>
+        <v>28.16611634557841</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>64.6613411619509</v>
+        <v>28.16611636861428</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>68.68803570523343</v>
+        <v>28.16611637508756</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>24.35169826532244</v>
+        <v>28.16611634195661</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>55.98818639443271</v>
+        <v>28.16611637468973</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>63.17756885413932</v>
+        <v>28.16611638369097</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>26.41199752042469</v>
+        <v>28.16611635937358</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>49.01039338327932</v>
+        <v>28.16611638013215</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>54.72867343419524</v>
+        <v>28.16611638593881</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>18.90974789774614</v>
+        <v>28.16611636323958</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>43.84227913888287</v>
+        <v>28.16611638618904</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>50.16905964685276</v>
+        <v>28.16611639260854</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>37.96205226144552</v>
+        <v>28.16611637266501</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>59.72599996823836</v>
+        <v>28.16611639275014</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>65.24740594081808</v>
+        <v>28.16611639836843</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>62.29943018088216</v>
+        <v>28.16611639148376</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>77.35761301758512</v>
+        <v>28.16611641373782</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>83.05181551282882</v>
+        <v>28.16611641999654</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>34.71863247857611</v>
+        <v>28.16611638651203</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>69.17902584779615</v>
+        <v>28.16611641810182</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>77.91775778049499</v>
+        <v>28.16611642693823</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>24.64398793359073</v>
+        <v>28.16611629675284</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>44.06119783236777</v>
+        <v>28.16611631771245</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>48.47168986236238</v>
+        <v>28.1661163235167</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>19.9854253963552</v>
+        <v>28.16611630021009</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.39727301344514</v>
+        <v>28.1661163233818</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>46.27918723927954</v>
+        <v>28.16611632979865</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.87508602909352</v>
+        <v>28.16611630848107</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>54.55680536203381</v>
+        <v>28.16611632876072</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>58.81734146991611</v>
+        <v>28.16611633437667</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>55.45330744487792</v>
+        <v>28.16611632858435</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>67.68122436260145</v>
+        <v>28.16611635099743</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>70.94623015044007</v>
+        <v>28.16611635737249</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.48399246014726</v>
+        <v>28.16611632562322</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>61.1036821689916</v>
+        <v>28.16611635751896</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>67.84371686161077</v>
+        <v>28.16611636635172</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>27.85161750561761</v>
+        <v>28.16611633079689</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>50.1908569598928</v>
+        <v>28.16611635310133</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>55.33275756663088</v>
+        <v>28.16611635930089</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>19.0302662401522</v>
+        <v>28.16611633515652</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>43.67184407915185</v>
+        <v>28.166116359815</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>49.36213150495003</v>
+        <v>28.16611636666887</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>37.24973765901164</v>
+        <v>28.16611634468187</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>58.75583615980531</v>
+        <v>28.16611636626272</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>63.72154390822435</v>
+        <v>28.16611637226117</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>61.1884853112357</v>
+        <v>28.16611636556229</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>76.24570454529247</v>
+        <v>28.16611638949379</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>80.67681416031621</v>
+        <v>28.16611639630716</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>35.72338392825857</v>
+        <v>28.16611636128926</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>69.79240216237287</v>
+        <v>28.16611639523152</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>77.65135961196899</v>
+        <v>28.16611640466584</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>30.91960283791575</v>
+        <v>28.16611637638069</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>54.93298493186396</v>
+        <v>28.16611639789163</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>61.07544826767625</v>
+        <v>28.16611640397768</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>21.37483655401768</v>
+        <v>28.1661163814843</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>47.86924480924435</v>
+        <v>28.16611640526553</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>54.66604787884915</v>
+        <v>28.16611641199391</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>42.28725490011406</v>
+        <v>28.16611639144584</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>65.41671294760674</v>
+        <v>28.16611641225894</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>71.34916052075289</v>
+        <v>28.16611641814755</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>70.37249271381049</v>
+        <v>28.16611641086293</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>86.80212095538383</v>
+        <v>28.16611643397319</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>92.87906983443006</v>
+        <v>28.16611644055682</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>44.18213568303315</v>
+        <v>28.16611640524761</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>80.79724466556686</v>
+        <v>28.16611643798235</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>90.18321875017773</v>
+        <v>28.16611644724393</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-24.41625413245647</v>
+        <v>28.16611629453166</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-6.309615020312503</v>
+        <v>28.16611631488261</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-1.931552165093851</v>
+        <v>28.16611632056088</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-32.565048470719</v>
+        <v>28.16611629769047</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-12.60137476784877</v>
+        <v>28.16611632018929</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-7.755454569731207</v>
+        <v>28.16611632646686</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-17.99576248763906</v>
+        <v>28.16611630567031</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>-0.579908938333233</v>
+        <v>28.16611632536106</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>3.649334378607415</v>
+        <v>28.16611633085511</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>1.855470607555826</v>
+        <v>28.16611632536954</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>12.79343131272441</v>
+        <v>28.1661163471489</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>16.11480839508108</v>
+        <v>28.16611635338963</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-19.35081339098839</v>
+        <v>28.16611632268865</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>8.271017190183656</v>
+        <v>28.16611635365815</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>14.96110403900391</v>
+        <v>28.16611636229918</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-21.62367492848978</v>
+        <v>28.16611632783622</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-0.6343230412234639</v>
+        <v>28.16611634949762</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>4.456823473502045</v>
+        <v>28.16611635556189</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-34.00950424510155</v>
+        <v>28.16611633187221</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-10.85957630818644</v>
+        <v>28.16611635581979</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-5.225501654043082</v>
+        <v>28.16611636252409</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-17.1302996830207</v>
+        <v>28.16611634107268</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>3.071923699024467</v>
+        <v>28.16611636203136</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>7.988662260338604</v>
+        <v>28.16611636789889</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>6.952259645561226</v>
+        <v>28.16611636151717</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>20.68117485233999</v>
+        <v>28.16611638477794</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>25.14140211828606</v>
+        <v>28.16611639144696</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-15.77322354950938</v>
+        <v>28.16611635754965</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>16.23802285496986</v>
+        <v>28.16611639051336</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>24.01911276796736</v>
+        <v>28.1661163997418</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-14.42984182645103</v>
+        <v>28.16611637267723</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>8.259793521508195</v>
+        <v>28.16611639357015</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>14.32982479908357</v>
+        <v>28.16611639952068</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>-27.36907836158437</v>
+        <v>28.16611637745001</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>-2.337459416767778</v>
+        <v>28.166116400548</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>4.37916049616191</v>
+        <v>28.16611640712656</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-7.750928143616818</v>
+        <v>28.16611638708305</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>14.099846071812</v>
+        <v>28.16611640729818</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>19.9623750022792</v>
+        <v>28.16611641305567</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>20.3734573903095</v>
+        <v>28.16611640608837</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>35.50819499409546</v>
+        <v>28.16611642855298</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>41.58105667090275</v>
+        <v>28.16611643499385</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-3.245688575253482</v>
+        <v>28.16611640079182</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>31.35158968259953</v>
+        <v>28.16611643258608</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>40.62660621249742</v>
+        <v>28.16611644164142</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>11.7445411990802</v>
+        <v>28.16611628354455</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.99658382680338</v>
+        <v>28.16611630469554</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>35.19604195449081</v>
+        <v>28.16611631049183</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>7.018954251579133</v>
+        <v>28.16611628616167</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.24841003256155</v>
+        <v>28.16611630954498</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>32.89643937335458</v>
+        <v>28.166116315953</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>22.05476306517739</v>
+        <v>28.16611629434029</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>40.57599095727086</v>
+        <v>28.16611631480513</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>44.63163734607346</v>
+        <v>28.16611632041337</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>39.9761468298429</v>
+        <v>28.16611631463864</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>51.74606572592816</v>
+        <v>28.16611633723341</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>54.79833713220156</v>
+        <v>28.166116343584</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>14.31676794873214</v>
+        <v>28.16611631197962</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>43.68649012910378</v>
+        <v>28.16611634416661</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>50.10506847269972</v>
+        <v>28.16611635298722</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>13.83134933594956</v>
+        <v>28.1661163173056</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>35.99470070767165</v>
+        <v>28.16611633980501</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>41.05700983215521</v>
+        <v>28.16611634601131</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>5.537963468263388</v>
+        <v>28.16611632084422</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.98520957094669</v>
+        <v>28.16611634571825</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.58695007612849</v>
+        <v>28.16611635257958</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>22.85833876795385</v>
+        <v>28.16611633029051</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>44.19345565164093</v>
+        <v>28.16611635206001</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>49.08135861135799</v>
+        <v>28.16611635806497</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>45.24143454234901</v>
+        <v>28.16611635139864</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>59.84000975763384</v>
+        <v>28.16611637551127</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>64.21115424462602</v>
+        <v>28.16611638231447</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>18.13362098409771</v>
+        <v>28.16611634744163</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>51.93625745999263</v>
+        <v>28.16611638168058</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>59.67420292402559</v>
+        <v>28.16611639112516</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>18.15836640980807</v>
+        <v>28.16611636457825</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>42.16023088400796</v>
+        <v>28.16611638628603</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>48.26903500127941</v>
+        <v>28.16611639237997</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>9.272890865432069</v>
+        <v>28.16611636897059</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>35.75469935331256</v>
+        <v>28.16611639296944</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>42.51367168835232</v>
+        <v>28.16611639970655</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.47358233468148</v>
+        <v>28.16611637888546</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>52.59104995327002</v>
+        <v>28.16611639988901</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>58.49002844565901</v>
+        <v>28.16611640578526</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>56.15766335672675</v>
+        <v>28.16611639853263</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>72.31865426887549</v>
+        <v>28.16611642182365</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>78.4140352026553</v>
+        <v>28.1661164284011</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.32625054605654</v>
+        <v>28.16611639318566</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>64.9254648745235</v>
+        <v>28.16611642621995</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>74.26034245670979</v>
+        <v>28.16611643549354</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>10.4096961444039</v>
+        <v>28.16611628917356</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>27.5065261493076</v>
+        <v>28.16611630933895</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>31.59487448643481</v>
+        <v>28.16611631493173</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>5.213239191085778</v>
+        <v>28.16611629196942</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.06202761182825</v>
+        <v>28.1661163142631</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.58752129706723</v>
+        <v>28.16611632044614</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>19.26626227541404</v>
+        <v>28.16611629981088</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>35.70799113438828</v>
+        <v>28.16611631932208</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>39.65706553125021</v>
+        <v>28.16611632473342</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>36.94468298594977</v>
+        <v>28.16611631939644</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>46.92383374989435</v>
+        <v>28.16611634097034</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>49.90540443006401</v>
+        <v>28.16611634710868</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>14.3025825679493</v>
+        <v>28.16611631692345</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>40.38535269237532</v>
+        <v>28.16611634761057</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>46.63379838751881</v>
+        <v>28.1661163561215</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>14.41891290661272</v>
+        <v>28.16611632204025</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>34.34858391077929</v>
+        <v>28.16611634350705</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>39.17849868735608</v>
+        <v>28.16611634948413</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>5.346241368810905</v>
+        <v>28.16611632570707</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>27.32613898593246</v>
+        <v>28.16611634943951</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>32.67130580217819</v>
+        <v>28.16611635604743</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>21.62748305950792</v>
+        <v>28.16611633476091</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>40.80735007511315</v>
+        <v>28.1661163555313</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>45.47153078604477</v>
+        <v>28.16611636131449</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>43.41352158156963</v>
+        <v>28.16611635509236</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>56.15252423610541</v>
+        <v>28.166116378135</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>60.2825989250485</v>
+        <v>28.16611638469895</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>19.2378508501354</v>
+        <v>28.16611635134963</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>49.63407900180965</v>
+        <v>28.1661163840172</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>57.01686546507987</v>
+        <v>28.16611639311296</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>21.05742961700418</v>
+        <v>28.1661163671141</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>42.75841709205881</v>
+        <v>28.16611638782332</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>48.55758017829383</v>
+        <v>28.16611639368946</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>11.4960254769687</v>
+        <v>28.1661163715551</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>35.43611230986583</v>
+        <v>28.16611639445</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>41.85313740822086</v>
+        <v>28.16611640093527</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>30.48204001027579</v>
+        <v>28.1661163810474</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>51.37904733525706</v>
+        <v>28.16611640108479</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>56.97971201547661</v>
+        <v>28.16611640676063</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>56.29226823792192</v>
+        <v>28.16611639994845</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>70.52196505526966</v>
+        <v>28.16611642220435</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>76.24487174037591</v>
+        <v>28.16611642854616</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>31.28851133910071</v>
+        <v>28.16611639486693</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>64.37915422499248</v>
+        <v>28.16611642638163</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>73.24104773524962</v>
+        <v>28.16611643530857</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-21.28065901883462</v>
+        <v>28.16611629443867</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-3.454763067244201</v>
+        <v>28.16611631467993</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>0.933235566054087</v>
+        <v>28.16611632033582</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-29.13631001900796</v>
+        <v>28.1661162975879</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-9.482723599407194</v>
+        <v>28.16611631996545</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-4.625806402860498</v>
+        <v>28.16611632621827</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-14.69518221456244</v>
+        <v>28.16611630552229</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>2.449722058046532</v>
+        <v>28.1661163251069</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>6.688630657413462</v>
+        <v>28.1661163305793</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>5.021253365579508</v>
+        <v>28.16611632515719</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>15.69266806087869</v>
+        <v>28.16611634682267</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>19.03087568054655</v>
+        <v>28.1661163530385</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-16.06463474961499</v>
+        <v>28.16611632252067</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>11.12921293186341</v>
+        <v>28.16611635332325</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>17.83440835405706</v>
+        <v>28.16611636193021</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-18.80665915908946</v>
+        <v>28.166116327524</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>1.882798850245248</v>
+        <v>28.16611634906884</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>6.982855037944994</v>
+        <v>28.16611635510922</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-30.91725608675227</v>
+        <v>28.16611633154232</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-8.098581500539641</v>
+        <v>28.16611635536103</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-2.45463078037896</v>
+        <v>28.16611636203892</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-14.18800802449114</v>
+        <v>28.16611634069011</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>5.724759775033764</v>
+        <v>28.166116361536</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>10.65018745981343</v>
+        <v>28.16611636738042</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>9.704152260034149</v>
+        <v>28.16611636106501</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>23.14964311679607</v>
+        <v>28.16611638420422</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>27.62183036102647</v>
+        <v>28.16611639084669</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-12.89985444848041</v>
+        <v>28.16611635714957</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>18.65423516690995</v>
+        <v>28.16611638993589</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>26.44887632238799</v>
+        <v>28.16611639912797</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-11.62285500144473</v>
+        <v>28.16611637215981</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>10.76590757730363</v>
+        <v>28.16611639293959</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>16.8312306275668</v>
+        <v>28.16611639886631</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-24.26613365610056</v>
+        <v>28.16611637690941</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>0.4331466178290988</v>
+        <v>28.16611639988233</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>7.144586706192854</v>
+        <v>28.16611640643456</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-4.816554752639078</v>
+        <v>28.16611638648723</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>16.743797535339</v>
+        <v>28.16611640659289</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>22.60185495471174</v>
+        <v>28.16611641232734</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>23.09029765256836</v>
+        <v>28.16611640542685</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>37.93916730302414</v>
+        <v>28.16611642777298</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>44.00645785730487</v>
+        <v>28.16611643418789</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-0.4151848418153143</v>
+        <v>28.16611640018722</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>33.72348021671682</v>
+        <v>28.16611643180931</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>42.99128192397372</v>
+        <v>28.16611644082842</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>32.78874682885606</v>
+        <v>28.16611629086587</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>50.67429125661868</v>
+        <v>28.16611631177932</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>54.91248503393317</v>
+        <v>28.16611631757784</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>29.2502401379651</v>
+        <v>28.16611629403962</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>48.96871389340566</v>
+        <v>28.16611631716031</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>53.6602246118013</v>
+        <v>28.16611632357082</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>44.17479793904462</v>
+        <v>28.16611630221199</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>61.3752302072109</v>
+        <v>28.16611632244699</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>65.46923946701158</v>
+        <v>28.1661163280574</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>62.16656545129829</v>
+        <v>28.16611632241534</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>72.66307135773394</v>
+        <v>28.16611634477855</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>75.75474949637572</v>
+        <v>28.16611635113685</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>37.80727080773903</v>
+        <v>28.16611631967441</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>65.09373573902162</v>
+        <v>28.16611635149991</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>71.57126115350363</v>
+        <v>28.16611636032394</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>35.74710068029692</v>
+        <v>28.16611632479481</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>56.54092154936219</v>
+        <v>28.16611634705259</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>61.49260955182385</v>
+        <v>28.16611635324981</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>28.10298590944436</v>
+        <v>28.16611632886854</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>51.03593195937695</v>
+        <v>28.16611635347544</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>56.51608093723306</v>
+        <v>28.16611636032673</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>45.34019334462268</v>
+        <v>28.16611633829809</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>65.35165539404917</v>
+        <v>28.1661163598338</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>70.13354268292048</v>
+        <v>28.16611636582997</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>67.56887368083281</v>
+        <v>28.16611635928568</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>80.89539316596962</v>
+        <v>28.16611638316339</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>85.12333969325238</v>
+        <v>28.16611638996276</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>41.70500122201624</v>
+        <v>28.16611635523928</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>73.41974272217965</v>
+        <v>28.16611638911054</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>80.98907232359483</v>
+        <v>28.1661163985413</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>40.81840326962774</v>
+        <v>28.16611637119598</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>63.44738228256406</v>
+        <v>28.16611639266452</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>69.37566087845561</v>
+        <v>28.1661163987456</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>32.56395793497506</v>
+        <v>28.16611637604765</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>57.52772109981715</v>
+        <v>28.16611639978201</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>64.0878763884231</v>
+        <v>28.16611640650489</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>52.63653038944184</v>
+        <v>28.16611638593319</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>74.42703715177069</v>
+        <v>28.16611640670526</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>80.1524599415003</v>
+        <v>28.16611641258906</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>79.04010116227401</v>
+        <v>28.16611640545595</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>93.91293139591349</v>
+        <v>28.16611642851359</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>99.74767764712956</v>
+        <v>28.16611643508261</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>52.33619487663064</v>
+        <v>28.16611640004154</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>86.84229743354035</v>
+        <v>28.16611643271175</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>95.90214783672386</v>
+        <v>28.16611644196576</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>18.64044203759365</v>
+        <v>28.16611628659508</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>38.04603992709787</v>
+        <v>28.16611630775534</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>42.3088434812685</v>
+        <v>28.16611631356039</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>14.21875130038877</v>
+        <v>28.16611628946773</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>35.61791549801744</v>
+        <v>28.16611631286127</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>40.3361448931164</v>
+        <v>28.166116319279</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>29.54822621345313</v>
+        <v>28.16611629768351</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>48.21800091478576</v>
+        <v>28.1661163181573</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>52.33509629351063</v>
+        <v>28.16611632377403</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>47.72047896193993</v>
+        <v>28.16611631798289</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>59.66326229085841</v>
+        <v>28.16611634058992</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>62.77344619290907</v>
+        <v>28.16611634695375</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>22.04742539771043</v>
+        <v>28.16611631523505</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>51.65100812509773</v>
+        <v>28.16611634743613</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>58.16609749375834</v>
+        <v>28.1661163562701</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>20.66140716548801</v>
+        <v>28.16611632042547</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>42.97216356441884</v>
+        <v>28.16611634293587</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>48.0804789032665</v>
+        <v>28.16611634914818</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>12.47139220446589</v>
+        <v>28.16611632421373</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>37.08156480428119</v>
+        <v>28.16611634909991</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>42.73432918177105</v>
+        <v>28.16611635596787</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>30.08444748073982</v>
+        <v>28.16611633369586</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>51.5621954424002</v>
+        <v>28.166116355476</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>56.49477931803725</v>
+        <v>28.16611636148676</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>52.66399425454216</v>
+        <v>28.16611635479984</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>67.42469341580511</v>
+        <v>28.16611637892755</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>71.8334574358846</v>
+        <v>28.1661163857416</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>25.52891480276148</v>
+        <v>28.16611635075049</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>59.5560434910559</v>
+        <v>28.16611638500618</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>67.36404875857497</v>
+        <v>28.16611639445989</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>23.98467635572579</v>
+        <v>28.16611636732261</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>48.09509077656087</v>
+        <v>28.16611638903796</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>54.23771271872067</v>
+        <v>28.16611639513814</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>15.09705538395918</v>
+        <v>28.16611637193368</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>41.69883206697183</v>
+        <v>28.1661163959409</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>48.49536575391669</v>
+        <v>28.16611640268491</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>35.53996036516267</v>
+        <v>28.16611638187606</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>58.76248331687112</v>
+        <v>28.16611640288694</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>64.69436922337799</v>
+        <v>28.16611640878922</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>62.38305981713067</v>
+        <v>28.16611640151541</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>78.66129832149821</v>
+        <v>28.16611642481877</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>84.77526210204897</v>
+        <v>28.16611643140646</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>34.55561070171558</v>
+        <v>28.16611639608727</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>71.32009648095647</v>
+        <v>28.16611642913307</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>80.70648784976649</v>
+        <v>28.16611643841616</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.152</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.886</v>
+        <v>18.79</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.036</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.883</v>
+        <v>19.737</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.031</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.331</v>
+        <v>15.663</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.16611629367841</v>
+        <v>-2.104770156277425</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.16611631431364</v>
+        <v>21.81961346985546</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.16611632006189</v>
+        <v>25.77608822864631</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.1661162968942</v>
+        <v>-0.6422008369802974</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.16611631970731</v>
+        <v>14.22433744128229</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.16611632606223</v>
+        <v>19.09282652494229</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.16611630499591</v>
+        <v>10.22432303810504</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.16611632496171</v>
+        <v>22.5964366161759</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.16611633052348</v>
+        <v>26.08278715522312</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.16611632496692</v>
+        <v>26.1950062876232</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.16611634704923</v>
+        <v>32.97375439683254</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.16611635336535</v>
+        <v>36.15299400597769</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.16611632224179</v>
+        <v>6.752348052025937</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.1661163536439</v>
+        <v>25.23719721721266</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.16611636239142</v>
+        <v>30.38630557807109</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.16611632730056</v>
+        <v>-0.3409279333354149</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.16611634926291</v>
+        <v>26.42520347601594</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.16611635540293</v>
+        <v>32.33811268158426</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.16611633140382</v>
+        <v>-2.889443209856037</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.1661163556841</v>
+        <v>14.88696850899323</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.16611636247216</v>
+        <v>21.51293876798735</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.16611634074191</v>
+        <v>10.96688668045159</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.16611636199177</v>
+        <v>25.58050550044014</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.16611636793261</v>
+        <v>30.6138704997586</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.16611636147162</v>
+        <v>31.54793001711388</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.16611638505356</v>
+        <v>40.37641027541798</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.16611639180418</v>
+        <v>44.68780450470693</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.16611635744803</v>
+        <v>9.558992175508914</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.16611639086971</v>
+        <v>31.59281166809605</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.16611640021343</v>
+        <v>38.66591617002638</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.16611637266719</v>
+        <v>2.690733122578816</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.16611639384863</v>
+        <v>30.82166734156327</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.16611639987476</v>
+        <v>37.6210249909043</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.16611637751704</v>
+        <v>1.376579538695829</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.16611640093399</v>
+        <v>20.67031752901206</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.16611640759614</v>
+        <v>28.13734032613737</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.16611638729046</v>
+        <v>17.25594169231595</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.16611640778474</v>
+        <v>33.25320348994049</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.16611641361538</v>
+        <v>38.99844923379743</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.16611640656238</v>
+        <v>41.68721577187989</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.16611642933506</v>
+        <v>51.1262635148473</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.16611643585624</v>
+        <v>56.22499659969166</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.16611640119557</v>
+        <v>18.70222296182866</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.16611643342888</v>
+        <v>42.52964713779667</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.16611644259928</v>
+        <v>50.57704786056439</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.16611628527016</v>
+        <v>1.689635336656245</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.16611630617739</v>
+        <v>27.35138801417718</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.16611631186789</v>
+        <v>30.9015406348093</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.16611628782824</v>
+        <v>3.829125269065898</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.16611631094205</v>
+        <v>20.65683040894764</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.16611631723313</v>
+        <v>25.07451395500832</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.1661162959116</v>
+        <v>15.44646515414809</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.16611631614057</v>
+        <v>29.47901766730191</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.16611632164646</v>
+        <v>32.57712986093431</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.1661163158355</v>
+        <v>31.97650687272944</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.16611633814701</v>
+        <v>39.63909201179049</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.16611634437362</v>
+        <v>42.43786117070214</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.16611631311963</v>
+        <v>10.76096659360171</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.16611634493567</v>
+        <v>31.43997692742435</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.16611635359531</v>
+        <v>36.07361632474986</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.16611631865858</v>
+        <v>1.812334346333408</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.16611634089916</v>
+        <v>30.32546077727111</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.16611634699395</v>
+        <v>35.69771527196456</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.16611632212851</v>
+        <v>-0.2163735106313105</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.16611634671639</v>
+        <v>19.52502386834811</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.16611635345443</v>
+        <v>25.56882222793278</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.16611633147038</v>
+        <v>14.52857492810149</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.16611635298944</v>
+        <v>30.80238493531673</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.16611635888651</v>
+        <v>35.33119764471338</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.16611635220755</v>
+        <v>35.83299367097352</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.16611637601597</v>
+        <v>45.53382453794898</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.166116382688</v>
+        <v>49.38772760081015</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.16611634821327</v>
+        <v>12.28208596949658</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.16611638205835</v>
+        <v>36.50887631964233</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.16611639133322</v>
+        <v>42.92020863983085</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.16611636556571</v>
+        <v>5.779558969371678</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.16611638702703</v>
+        <v>35.6238829551824</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.16611639301072</v>
+        <v>41.93828287757169</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.16611636989658</v>
+        <v>4.861716626367667</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.16611639362296</v>
+        <v>26.09366312953266</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.16611640023818</v>
+        <v>33.05519664101698</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.16611637971295</v>
+        <v>21.67108959887578</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.16611640047804</v>
+        <v>39.30637773822296</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.16611640626761</v>
+        <v>44.60519127823302</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.16611639902625</v>
+        <v>46.64433469392809</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.16611642202512</v>
+        <v>56.93341735654347</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.16611642847624</v>
+        <v>61.62311278529621</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.16611639366073</v>
+        <v>22.09367881636413</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.16611642631997</v>
+        <v>48.07782067057681</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.16611643542578</v>
+        <v>55.53839309403605</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.16611628527016</v>
+        <v>0.6826133779699433</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.16611630617739</v>
+        <v>26.23820496690798</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.16611631186789</v>
+        <v>29.73209620633084</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.16611628782824</v>
+        <v>2.607809700581413</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.16611631094205</v>
+        <v>19.31586463723338</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.16611631723313</v>
+        <v>23.67395728342878</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.1661162959116</v>
+        <v>14.24923098685127</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.16611631614057</v>
+        <v>28.17581526408073</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.16611632164646</v>
+        <v>31.22019028305201</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.1661163158355</v>
+        <v>30.85828847497073</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.16611633814701</v>
+        <v>38.44985713157002</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.16611634437362</v>
+        <v>41.20865327459654</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.16611631311963</v>
+        <v>9.763221380299111</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.16611634493567</v>
+        <v>30.311371411977</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.16611635359531</v>
+        <v>34.87447674622585</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.16611631865858</v>
+        <v>1.621674163558882</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.16611634089916</v>
+        <v>30.04527838977308</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.16611634699395</v>
+        <v>35.34983710987359</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.16611632212851</v>
+        <v>-0.5849451158033254</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.16611634671639</v>
+        <v>19.04988360982149</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.16611635345443</v>
+        <v>25.02411343491686</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.16611633147038</v>
+        <v>14.20110765769897</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.16611635298944</v>
+        <v>30.38123849463428</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.16611635888651</v>
+        <v>34.84740063814461</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.16611635220755</v>
+        <v>35.52994626860991</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.16611637601597</v>
+        <v>45.15265827430186</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.166116382688</v>
+        <v>48.96187560964589</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.16611634821327</v>
+        <v>12.06599714139474</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.16611638205835</v>
+        <v>36.17688590720574</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.16611639133322</v>
+        <v>42.50479094409127</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.16611636556571</v>
+        <v>5.621623141597242</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.16611638702703</v>
+        <v>35.39166564705658</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.16611639301072</v>
+        <v>41.64440838675682</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.16611636989658</v>
+        <v>4.515151224225743</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.16611639362296</v>
+        <v>25.65343638385434</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.16611640023818</v>
+        <v>32.55285147061453</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.16611637971295</v>
+        <v>21.36887373835243</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.16611640047804</v>
+        <v>38.92295400404671</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>28.16611640626761</v>
+        <v>44.16497287232856</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>28.16611639902625</v>
+        <v>46.35789198929423</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28.16611642202512</v>
+        <v>56.5766100891522</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>28.16611642847624</v>
+        <v>61.22526324960229</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.16611639366073</v>
+        <v>21.87908563571527</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.16611642631997</v>
+        <v>47.76220962435404</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>28.16611643542578</v>
+        <v>55.14772609788616</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28.16611628786205</v>
+        <v>-7.017060293999773</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.16611630860524</v>
+        <v>16.455046225925</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.16611631438361</v>
+        <v>20.32980672959994</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.16611629070757</v>
+        <v>-5.855200228695331</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.16611631364003</v>
+        <v>8.559504308397273</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.16611632002826</v>
+        <v>13.30319645792722</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.16611629878123</v>
+        <v>4.681403714401938</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.16611631885149</v>
+        <v>16.66173273501072</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.1661163244424</v>
+        <v>20.04927245711385</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.16611631892768</v>
+        <v>20.13603725017209</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.16611634112455</v>
+        <v>26.7389083348731</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.16611634747453</v>
+        <v>29.89854940790166</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.16611631637009</v>
+        <v>1.101398991202565</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.16611634793649</v>
+        <v>19.06957046805874</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.16611635672986</v>
+        <v>24.08414278615663</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.166116321799</v>
+        <v>-5.500609931007382</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.16611634387948</v>
+        <v>20.77910039930658</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.16611635005447</v>
+        <v>26.60218423303237</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.16611632553882</v>
+        <v>-8.378294063384747</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.1661163499497</v>
+        <v>8.909129703392709</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.16611635677642</v>
+        <v>15.40361746164313</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.16611633486072</v>
+        <v>5.139441766642509</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.16611635622488</v>
+        <v>19.32836363782586</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.16611636219955</v>
+        <v>24.25750637356054</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.16611635577204</v>
+        <v>25.16694090369656</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.16611637947953</v>
+        <v>33.8134942932536</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.16611638626918</v>
+        <v>38.100706431878</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.16611635190375</v>
+        <v>3.615562342815686</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.16611638550519</v>
+        <v>25.08967106175529</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.16611639490213</v>
+        <v>32.02162748391518</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.16611636818446</v>
+        <v>-1.51043763472742</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.16611638948542</v>
+        <v>26.15031214006953</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.16611639554464</v>
+        <v>32.86374847115874</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.16611637271712</v>
+        <v>-3.131587336473547</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.16611639626621</v>
+        <v>15.68817112424177</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.16611640296493</v>
+        <v>23.02717447304379</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.16611638249385</v>
+        <v>12.43657123078574</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.16611640310379</v>
+        <v>28.02199204508067</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.16611640896643</v>
+        <v>33.66540242179056</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.16611640193813</v>
+        <v>36.28112693666012</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.16611642483724</v>
+        <v>45.54259382087864</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>28.16611643139481</v>
+        <v>50.61763144661133</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.16611639669338</v>
+        <v>13.6960825852545</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>28.16611642910857</v>
+        <v>36.98007876483403</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.16611643832932</v>
+        <v>44.89007163379088</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.16611629497623</v>
+        <v>1.450678695659157</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.1661163155958</v>
+        <v>25.82198112480207</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.16611632131537</v>
+        <v>29.67290969318109</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>28.16611629816743</v>
+        <v>3.256589181043186</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.16611632096323</v>
+        <v>18.63407523696306</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.16611632728645</v>
+        <v>23.36152957694096</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.16611630626847</v>
+        <v>14.33181126199247</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.16611632621912</v>
+        <v>27.14555148481183</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.16611633175314</v>
+        <v>30.51687800254315</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.16611632609848</v>
+        <v>30.43391197114143</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.16611634815412</v>
+        <v>37.47355390343004</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.16611635444111</v>
+        <v>40.56161538636232</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.16611632328575</v>
+        <v>10.60547772310088</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.16611635466403</v>
+        <v>29.64689995217316</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.16611636336791</v>
+        <v>34.64142250346736</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.16611632872402</v>
+        <v>5.005162646398077</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.16611635067019</v>
+        <v>32.21489538470468</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.16611635677989</v>
+        <v>37.96220570777487</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.16611633281376</v>
+        <v>2.915785384557903</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.16611635707617</v>
+        <v>21.19467350578838</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.16611636383069</v>
+        <v>27.61073129447594</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.16611634215278</v>
+        <v>17.04544389972319</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.16611636338699</v>
+        <v>32.09431455430548</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.16611636929847</v>
+        <v>36.95521412532869</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.16611636274425</v>
+        <v>37.78109298358606</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.16611638629885</v>
+        <v>46.88363839013351</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>28.16611639301854</v>
+        <v>51.07033249265179</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.1661163586307</v>
+        <v>15.43397339925845</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.16611639202776</v>
+        <v>38.01690114249537</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.16611640132531</v>
+        <v>44.8616099557525</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.16611637390982</v>
+        <v>7.450446415212634</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.16611639507798</v>
+        <v>35.9903056578617</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.16611640107596</v>
+        <v>42.64933984357695</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.16611637874943</v>
+        <v>6.594399334603615</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.16611640215171</v>
+        <v>26.3574133091762</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.16611640878273</v>
+        <v>33.63739814248944</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.16611638852322</v>
+        <v>22.7001989390243</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>28.16611640900467</v>
+        <v>39.10198932089836</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.16611641480806</v>
+        <v>44.69570045119602</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.16611640766993</v>
+        <v>47.29905490265827</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.16611643041988</v>
+        <v>56.99681061033926</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.16611643691244</v>
+        <v>61.97713198064317</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.16611640222243</v>
+        <v>23.97860624950095</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.16611643443554</v>
+        <v>48.31854694633584</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.16611644356309</v>
+        <v>56.16406776429254</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.16611629094933</v>
+        <v>2.374891018985455</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.16611631172621</v>
+        <v>27.43343880587579</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.16611631739084</v>
+        <v>30.81874629028594</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.16611629379952</v>
+        <v>4.771944274425714</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.16611631676923</v>
+        <v>21.20671822364709</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.16611632303171</v>
+        <v>25.42316704851757</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.1661163019018</v>
+        <v>15.99163481023887</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.16611632200466</v>
+        <v>29.7296469652881</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.16611632748552</v>
+        <v>32.68018406729691</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.1661163216525</v>
+        <v>32.07381109277504</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.16611634383243</v>
+        <v>39.6239247405244</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28.16611635004223</v>
+        <v>42.28462712236088</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.16611631878828</v>
+        <v>11.55472275405845</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.16611635040596</v>
+        <v>31.73252499054758</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.16611635902623</v>
+        <v>36.1508733495201</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.1661163247818</v>
+        <v>6.93193200950801</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.16611634689376</v>
+        <v>34.83326495008149</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.16611635295391</v>
+        <v>39.92915605792786</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.16611632855412</v>
+        <v>5.526947752134891</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.16611635299982</v>
+        <v>24.85993002260733</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.16611635969956</v>
+        <v>30.58100105153798</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.16611633791439</v>
+        <v>19.8946420064042</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.16611635930902</v>
+        <v>35.87304149971155</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.16611636517256</v>
+        <v>40.15163176205192</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.16611635846635</v>
+        <v>40.63109667034782</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>28.16611638214658</v>
+        <v>50.21074741975128</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.16611638879298</v>
+        <v>53.87514680483643</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.1661163543095</v>
+        <v>17.75412976044705</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.16611638795886</v>
+        <v>41.46315960982862</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.16611639718102</v>
+        <v>47.52812721234714</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.16611637091843</v>
+        <v>10.33542476847658</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.1661163922532</v>
+        <v>39.47173821565025</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.16611639820531</v>
+        <v>45.49371653142688</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.16611637550826</v>
+        <v>10.01933135106922</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.16611639909473</v>
+        <v>30.73978571028211</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.16611640567504</v>
+        <v>37.35490127771139</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>28.16611638533033</v>
+        <v>26.35046770587747</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.16611640597297</v>
+        <v>43.59457143464827</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.16611641173199</v>
+        <v>48.62775432739781</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>28.1661164044665</v>
+        <v>50.66520495357432</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.16611642734165</v>
+        <v>60.78932874312396</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.16611643376873</v>
+        <v>65.25248665969789</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.16611639896336</v>
+        <v>26.84931846872433</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.16611643143001</v>
+        <v>52.2010436099179</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.16611644048777</v>
+        <v>59.292656864725</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>28.16611628799933</v>
+        <v>-5.406560035434893</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.16611630881182</v>
+        <v>18.45022579372754</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.16611631454164</v>
+        <v>22.04228828586063</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.16611629090542</v>
+        <v>-3.986819933962884</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>28.16611631391449</v>
+        <v>11.09332436099268</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.16611632024904</v>
+        <v>15.58933547710641</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.16611629900922</v>
+        <v>6.813649682900898</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.16611631914652</v>
+        <v>19.37661501012371</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.16611632469046</v>
+        <v>22.55443260538024</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.16611631908042</v>
+        <v>22.54054323278367</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.166116341321</v>
+        <v>29.41390084439591</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.166116347597</v>
+        <v>32.25877201353423</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.16611631641531</v>
+        <v>3.059396382186126</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.16611634808717</v>
+        <v>21.75501045602218</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.16611635680663</v>
+        <v>26.4771396704366</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.16611632154623</v>
+        <v>-3.953373325063666</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.16611634369496</v>
+        <v>22.77499803824448</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.16611634982406</v>
+        <v>28.2120927912908</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.16611632534928</v>
+        <v>-6.553426272662328</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.16611634983563</v>
+        <v>11.46244744933786</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.16611635661159</v>
+        <v>17.61990394159095</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.16611633470745</v>
+        <v>7.281053895242302</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.16611635613765</v>
+        <v>22.11529264076155</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.16611636206791</v>
+        <v>26.75153004956444</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.16611635557362</v>
+        <v>27.57163972461709</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.16611637931598</v>
+        <v>36.44420690813347</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.1661163860327</v>
+        <v>40.37036324347973</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.16611635162127</v>
+        <v>5.639551348119191</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.16611638532659</v>
+        <v>27.90426399555393</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.16611639465367</v>
+        <v>34.43971539519848</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.1661163680939</v>
+        <v>0.7673129690305238</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.16611638945885</v>
+        <v>28.82895833489104</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.16611639547495</v>
+        <v>35.1385017193026</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.16611637270699</v>
+        <v>-0.7555160853702638</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>28.16611639632682</v>
+        <v>18.74138884270481</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.16611640297788</v>
+        <v>25.74532412664238</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>28.16611638252821</v>
+        <v>15.15158157246826</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.16611640320005</v>
+        <v>31.3381951362728</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.16611640902098</v>
+        <v>36.68435337663509</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.166116401949</v>
+        <v>38.99127680586143</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.16611642487582</v>
+        <v>48.45195075243173</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.16611643136793</v>
+        <v>53.1659852093472</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.16611639662928</v>
+        <v>16.05105672725271</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.16611642914184</v>
+        <v>40.06235028198308</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.16611643829699</v>
+        <v>47.56917510100817</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>28.16611629127712</v>
+        <v>-6.594859916108952</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.16611631224475</v>
+        <v>17.82410141343075</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.16611631804701</v>
+        <v>21.65164387074762</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.1661162943356</v>
+        <v>-5.072417812017719</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.16611631751619</v>
+        <v>10.28750625629224</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.16611632393083</v>
+        <v>14.99038384900527</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.16611630254097</v>
+        <v>5.815263197667267</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.16611632282838</v>
+        <v>18.60638753898479</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.16611632844242</v>
+        <v>21.95023401998581</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.16611632270968</v>
+        <v>22.01851744250161</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28.16611634513229</v>
+        <v>29.06370426810234</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>28.16611635150805</v>
+        <v>32.15537434400484</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.16611631991768</v>
+        <v>2.231788085606297</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.16611635182563</v>
+        <v>21.26890748646885</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.16611636065535</v>
+        <v>26.23081754377972</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.16611632557399</v>
+        <v>-4.198868619566682</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.16611634789111</v>
+        <v>23.06087111741587</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.16611635409162</v>
+        <v>28.80257684585242</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.16611632954844</v>
+        <v>-6.677423046189237</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.16611635422095</v>
+        <v>11.58549022711535</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.16611636107588</v>
+        <v>17.99803231899146</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.16611633901545</v>
+        <v>7.274814930226178</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.16611636060857</v>
+        <v>22.29974042741905</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.16611636660794</v>
+        <v>27.14992460438852</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.16611635996436</v>
+        <v>28.1482135487426</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.16611638391054</v>
+        <v>37.26558934788596</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.16611639072767</v>
+        <v>41.46917552177915</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.16611635585186</v>
+        <v>5.853715838491105</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.16611638981342</v>
+        <v>28.43554684437421</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.16611639924919</v>
+        <v>35.26954294806954</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.16611637185941</v>
+        <v>-0.9995977956516953</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.16611639338762</v>
+        <v>27.61428156530894</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.16611639947512</v>
+        <v>34.28297952628293</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.16611637661911</v>
+        <v>-2.236438713159554</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.16611640041944</v>
+        <v>17.53570792897868</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.16611640714943</v>
+        <v>24.82902074696938</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.1661163865364</v>
+        <v>13.74407655626352</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.16611640736621</v>
+        <v>30.14510175488381</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.16611641325623</v>
+        <v>35.74142736768253</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.1661164060202</v>
+        <v>38.47005122891115</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.16611642915007</v>
+        <v>48.19322863515795</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>28.16611643573748</v>
+        <v>53.20407275628941</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.16611640054226</v>
+        <v>15.16925913590371</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>28.16611643330328</v>
+        <v>39.53633590663619</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.16611644256708</v>
+        <v>47.38870432977608</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.16611629786847</v>
+        <v>9.210682275569603</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.16611631848364</v>
+        <v>35.03069771475236</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.16611632410223</v>
+        <v>38.58342128031205</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28.16611630118751</v>
+        <v>12.20548441932528</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.16611632397843</v>
+        <v>29.27769449009216</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.16611633019001</v>
+        <v>33.74118689633871</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.16611630931006</v>
+        <v>23.98712065963832</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.16611632925644</v>
+        <v>38.27348278444175</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.16611633469276</v>
+        <v>41.41335721468866</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.16611632884006</v>
+        <v>40.99763708234786</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.16611635084255</v>
+        <v>48.77793841763369</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.16611635699478</v>
+        <v>51.51704969257037</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.16611632579939</v>
+        <v>19.9334246363535</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.16611635717097</v>
+        <v>40.87078614756265</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.16611636572119</v>
+        <v>45.55751981904103</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.16611633094741</v>
+        <v>9.13455082376575</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.16611635288026</v>
+        <v>37.79304782922556</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.16611635888837</v>
+        <v>43.08219068768648</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>28.16611633515652</v>
+        <v>8.032405543983213</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.1661163594042</v>
+        <v>28.00174900866949</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.16611636604641</v>
+        <v>33.9941351823683</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>28.16611634451737</v>
+        <v>22.83766332784464</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.1661163657387</v>
+        <v>39.36084770844447</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.1661163715519</v>
+        <v>43.85089956068575</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.16611636484267</v>
+        <v>44.57151606919648</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.166116388325</v>
+        <v>54.35843540255326</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.16611639490729</v>
+        <v>58.12085079128806</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.16611636053697</v>
+        <v>21.17011064386904</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.16611639391377</v>
+        <v>45.63911978146056</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.16611640305674</v>
+        <v>51.99703594805092</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.16611637592413</v>
+        <v>11.75195863656434</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.16611639707933</v>
+        <v>41.65193103474481</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.16611640297953</v>
+        <v>47.87110388564936</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.16611638089698</v>
+        <v>11.70140163520528</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.16611640428493</v>
+        <v>33.06575355511477</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.16611641080785</v>
+        <v>39.95988935595449</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.16611639070036</v>
+        <v>28.48360408376345</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.16611641116926</v>
+        <v>46.28004236684589</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>28.16611641687805</v>
+        <v>51.53125697885119</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.16611640962439</v>
+        <v>53.77893973880778</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.16611643230026</v>
+        <v>64.1102692679334</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.16611643866552</v>
+        <v>68.67951704219826</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.16611640401058</v>
+        <v>29.43764451392674</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.16611643620396</v>
+        <v>55.55754685310793</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.16611644518272</v>
+        <v>62.94927801478362</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.16611627832004</v>
+        <v>-7.677529776508241</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.16611629840972</v>
+        <v>15.75388251294922</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.16611630392574</v>
+        <v>19.21744214095775</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.16611628031681</v>
+        <v>-7.062238697534983</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.16611630252677</v>
+        <v>7.892343773237087</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.16611630862497</v>
+        <v>12.20529380963238</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.1661162879758</v>
+        <v>3.549907306307929</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.16611630741374</v>
+        <v>15.97132056940613</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.16611631275082</v>
+        <v>19.00659845300767</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.16611630746251</v>
+        <v>18.68521189747388</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.16611632892948</v>
+        <v>25.42494307495465</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.16611633496598</v>
+        <v>28.22974175083372</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.16611630526694</v>
+        <v>-0.842564056868067</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.16611633583883</v>
+        <v>17.66241584922896</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.16611634423297</v>
+        <v>22.18281453517434</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.16611631026544</v>
+        <v>-6.632564051259138</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.16611633163772</v>
+        <v>19.55992044079483</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.16611633755026</v>
+        <v>24.8789196257666</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.16611631313646</v>
+        <v>-9.975989660528725</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>28.16611633676439</v>
+        <v>7.810201866427585</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.16611634330095</v>
+        <v>13.81054846222681</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.16611632200413</v>
+        <v>3.649154744086641</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.16611634268306</v>
+        <v>18.25059009917412</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.16611634840379</v>
+        <v>22.76264962864851</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.16611634226696</v>
+        <v>23.2362089861468</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.16611636517559</v>
+        <v>31.92338378800216</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.16611637164892</v>
+        <v>35.79259257341677</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.16611633884335</v>
+        <v>1.379118546513496</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.16611637136707</v>
+        <v>23.32220725342119</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.16611638036461</v>
+        <v>29.68504582602551</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.16611635628588</v>
+        <v>-2.011464505518035</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.16611637690958</v>
+        <v>25.52520520021117</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.1661163827135</v>
+        <v>31.70276310962009</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.16611636002311</v>
+        <v>-4.263615797541892</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.16611638282346</v>
+        <v>15.01770983637875</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.16611638923994</v>
+        <v>21.85334331614335</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.16611636935722</v>
+        <v>11.38996790812401</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.16611638931185</v>
+        <v>27.35954148379123</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.16611639492749</v>
+        <v>32.56809593011887</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.16611638822285</v>
+        <v>34.56976049228408</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.16611641035144</v>
+        <v>43.86226410209259</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.16611641660947</v>
+        <v>48.52394524212957</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.1661163834412</v>
+        <v>11.74176976686232</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.16611641482576</v>
+        <v>35.44376628434486</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.16611642365801</v>
+        <v>42.76203585603045</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.16611628131856</v>
+        <v>-1.454375695725769</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.16611630173648</v>
+        <v>23.18697060802671</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.166116307294</v>
+        <v>26.49461237045634</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.16611628338727</v>
+        <v>-0.008663830096232061</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.16611630596013</v>
+        <v>16.02306673132906</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.1661163121042</v>
+        <v>20.11676466445783</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.1661162912062</v>
+        <v>11.14326282686588</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.16611631096174</v>
+        <v>24.4898715579087</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.16611631633897</v>
+        <v>27.334469182905</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.16611631072335</v>
+        <v>26.76875242052618</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.16611633251542</v>
+        <v>34.08426933450463</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.16611633860055</v>
+        <v>36.74621892020313</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.1661163082505</v>
+        <v>6.257440241651469</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.16611633932192</v>
+        <v>25.9867394995265</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.1661163477792</v>
+        <v>30.26450846394359</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.16611631422148</v>
+        <v>2.606983129562316</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.16611633594567</v>
+        <v>30.06891308820602</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.16611634190118</v>
+        <v>35.15236746486075</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.16611631719809</v>
+        <v>0.1815329792968399</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.16611634121508</v>
+        <v>19.09012225979517</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.16611634779915</v>
+        <v>24.77161704594003</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.16611632625284</v>
+        <v>14.52043868691316</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.16611634727228</v>
+        <v>30.08252364878744</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.16611635303459</v>
+        <v>34.32277786812704</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>28.16611634656498</v>
+        <v>34.75078079887658</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.16611636982409</v>
+        <v>44.0807931224652</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.16611637634751</v>
+        <v>47.76833401069064</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.16611634283289</v>
+        <v>11.90647336956122</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.16611637589214</v>
+        <v>35.13642074964362</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.16611638495508</v>
+        <v>41.14962412656019</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.16611636072788</v>
+        <v>6.979147196591454</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.16611638169657</v>
+        <v>35.76820749479188</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.16611638754382</v>
+        <v>41.78201207212827</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.1661163645879</v>
+        <v>5.657649032596877</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.16611638776966</v>
+        <v>26.04742712595185</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.16611639423404</v>
+        <v>32.63503200279713</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.16611637411976</v>
+        <v>22.02035777922885</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.1661163944082</v>
+        <v>38.93618214659018</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>28.16611640006576</v>
+        <v>43.93525746589622</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.16611639303871</v>
+        <v>45.87839883775865</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>28.16611641551331</v>
+        <v>55.79812713740734</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.16611642182051</v>
+        <v>60.30899475178868</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.16611638794337</v>
+        <v>22.03951809175999</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.16611641985294</v>
+        <v>47.01550093557462</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>28.16611642875112</v>
+        <v>54.06483075525878</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>28.16611627910796</v>
+        <v>-6.99871501263793</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>28.16611629928466</v>
+        <v>16.67438551802603</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.16611630480363</v>
+        <v>20.0965888506908</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.16611628108992</v>
+        <v>-5.969939771230784</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.16611630339609</v>
+        <v>9.049678512473815</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.16611630949755</v>
+        <v>13.29439636201456</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.16611628878986</v>
+        <v>4.742515780061538</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.166116308312</v>
+        <v>17.22405320552887</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.16611631365193</v>
+        <v>20.1971166571126</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.16611630826196</v>
+        <v>19.87916825446958</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.16611632980347</v>
+        <v>26.72730567579823</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.16611633583946</v>
+        <v>29.47712991664446</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.166116305991</v>
+        <v>0.2817522376292807</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.16611633669532</v>
+        <v>18.88790919724549</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.16611634509394</v>
+        <v>23.33356637637792</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>28.16611631128401</v>
+        <v>-7.722107304131949</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>28.16611633275052</v>
+        <v>18.72491843971042</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.16611633866523</v>
+        <v>23.96974844350463</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.16611631413377</v>
+        <v>-10.846936083672</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.16611633786588</v>
+        <v>7.006732080215761</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.16611634440484</v>
+        <v>12.89863675994385</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.16611632305196</v>
+        <v>2.866666957494381</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.16611634382207</v>
+        <v>17.52759118799181</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.16611634954491</v>
+        <v>21.94576776487134</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.16611634330888</v>
+        <v>22.53652838815638</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.16611636629759</v>
+        <v>31.34712167721565</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.16611637276921</v>
+        <v>35.15064996335523</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.16611633980295</v>
+        <v>0.6416916869255438</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.16611637247007</v>
+        <v>22.6949515522167</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.16611638147092</v>
+        <v>28.93871980573221</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.1661163577691</v>
+        <v>-1.715093088413713</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.16611637848793</v>
+        <v>26.10342480631174</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.1661163842912</v>
+        <v>32.23593090634038</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.16611636150206</v>
+        <v>-3.741495068608202</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.16611638440758</v>
+        <v>15.63333941883463</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>28.16611639082334</v>
+        <v>22.39360674021394</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>28.16611637090151</v>
+        <v>12.07578662998647</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>28.1661163909482</v>
+        <v>28.12592025597078</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>28.1661163965632</v>
+        <v>33.26872159830786</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.16611638976847</v>
+        <v>35.24539284501305</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.16611641197752</v>
+        <v>44.65922020665597</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>28.16611641823172</v>
+        <v>49.26860544656203</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.16611638489474</v>
+        <v>12.29401144249378</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>28.16611641642406</v>
+        <v>36.13505809011014</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>28.16611642525532</v>
+        <v>43.37072804323714</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.16611627445281</v>
+        <v>-13.68710651834672</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.16611629405679</v>
+        <v>8.851813749196157</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.1661162994232</v>
+        <v>12.0807063971647</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.16611627587962</v>
+        <v>-13.26689977371571</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.16611629755264</v>
+        <v>0.8646818234378557</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.16611630348543</v>
+        <v>4.84213057354286</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.16611628327136</v>
+        <v>-3.260624760409048</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.16611630223936</v>
+        <v>8.458108407497532</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.16611630743168</v>
+        <v>11.22853396052172</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.16611630228512</v>
+        <v>10.93421682557136</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.16611632321929</v>
+        <v>17.40280452336688</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.16611632909202</v>
+        <v>20.07146433179011</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.16611630030797</v>
+        <v>-7.753841450541064</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.16611633014076</v>
+        <v>9.796023472112019</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.16611633830721</v>
+        <v>13.95458467585994</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.16611630600493</v>
+        <v>-12.70810222932953</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.16611632686667</v>
+        <v>12.52408010299945</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.16611633262156</v>
+        <v>17.54225846795996</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.16611630829057</v>
+        <v>-16.24804126131562</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.16611633135409</v>
+        <v>0.6343949716655537</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.16611633771635</v>
+        <v>6.235218117962752</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.16611631687328</v>
+        <v>-3.250519880700022</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.16611633705825</v>
+        <v>10.58131997630154</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.16611634262644</v>
+        <v>14.77418371120482</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.16611633665034</v>
+        <v>15.32396362303787</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.16611635899615</v>
+        <v>23.71970439306805</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.16611636529627</v>
+        <v>27.41957222667837</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.16611633346234</v>
+        <v>-5.613297865047269</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.16611636520916</v>
+        <v>15.28232582231881</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.16611637396678</v>
+        <v>21.21361449375118</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.16611635204112</v>
+        <v>-6.037947043013144</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.16611637218254</v>
+        <v>20.55342337389153</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.16611637782878</v>
+        <v>26.44001297187364</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.16611635523495</v>
+        <v>-8.475861616220584</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.16611637750214</v>
+        <v>9.911166607112861</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.16611638374429</v>
+        <v>16.35986239692862</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.1661163643023</v>
+        <v>6.59509855844226</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.16611638379031</v>
+        <v>21.80124690195549</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.16611638925338</v>
+        <v>26.70072293768027</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.16611638272393</v>
+        <v>28.60019861674191</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.16611640431856</v>
+        <v>37.5956195982096</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.16611641040635</v>
+        <v>42.08428580468937</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.16611637817655</v>
+        <v>6.607485971145508</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.1661164088272</v>
+        <v>29.27060636354139</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.16611641741948</v>
+        <v>36.1703525607045</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.16611628957394</v>
+        <v>-2.690672881503765</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.16611631056212</v>
+        <v>21.40896080581845</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.16611631640202</v>
+        <v>25.34117492711882</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.1661162926647</v>
+        <v>-1.43662226549727</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.16611631586801</v>
+        <v>13.52297582065732</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.16611632232426</v>
+        <v>18.36954592422512</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.16611630087094</v>
+        <v>9.60717497851817</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.16611632117824</v>
+        <v>22.0515125667769</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.16611632682869</v>
+        <v>25.51089608054402</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.16611632122468</v>
+        <v>25.58794119939239</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.16611634368232</v>
+        <v>32.4014824601247</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.16611635009629</v>
+        <v>35.56046314432351</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.16611631854764</v>
+        <v>5.978814525667067</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.16611635048687</v>
+        <v>24.58440189976037</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.16611635937387</v>
+        <v>29.70184125713846</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.16611632370593</v>
+        <v>-2.628477988557606</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.16611634604428</v>
+        <v>24.3150446806328</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.1661163522846</v>
+        <v>30.20201705712947</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.16611632769813</v>
+        <v>-5.558528644237388</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.1661163523941</v>
+        <v>12.31261092681772</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.16611635929304</v>
+        <v>18.9145997058288</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.16611633716392</v>
+        <v>8.467273211861112</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.16611635877759</v>
+        <v>23.15120786924776</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.16611636481547</v>
+        <v>28.15579040315223</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.16611635829424</v>
+        <v>29.09746336787125</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.16611638227629</v>
+        <v>37.96158104670771</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.16611638913402</v>
+        <v>42.25157482747819</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.16611635429981</v>
+        <v>6.975210821099104</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.16611638829368</v>
+        <v>29.13254398016038</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.16611639779002</v>
+        <v>36.17116134405367</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.16611637022866</v>
+        <v>1.001183622744279</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.1661163917743</v>
+        <v>29.33367150722003</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.16611639789875</v>
+        <v>36.11653860697735</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.16611637500179</v>
+        <v>-0.6736443447687286</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.16611639882138</v>
+        <v>18.74041386186377</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.16611640559222</v>
+        <v>26.1944733434445</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.1661163849186</v>
+        <v>15.41342508160683</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.16611640576527</v>
+        <v>31.50434568521507</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.16611641169103</v>
+        <v>37.22912755276293</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.16611640456673</v>
+        <v>39.89773048700742</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.16611642772642</v>
+        <v>49.38305917007565</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.16611643435137</v>
+        <v>54.47235199562965</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.16611639919467</v>
+        <v>16.75030980077946</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.16611643198221</v>
+        <v>40.72988958512587</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.16611644130223</v>
+        <v>48.75408273218787</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.1661162813453</v>
+        <v>1.362426980507127</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.16611630156794</v>
+        <v>25.60467419707759</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.16611630708618</v>
+        <v>29.08024576006101</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.1661162834641</v>
+        <v>2.847875493605013</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.16611630582106</v>
+        <v>18.56597011690037</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.16611631192171</v>
+        <v>22.86681963004423</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.16611629120712</v>
+        <v>13.9493948168642</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.16611631077371</v>
+        <v>27.02005825257708</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.16611631611293</v>
+        <v>30.04363213019241</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.16611631062721</v>
+        <v>29.48128453190718</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.16611633221732</v>
+        <v>36.59182135271755</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.16611633825377</v>
+        <v>39.3617653739001</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.16611630823666</v>
+        <v>9.204729494449536</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.1661163390109</v>
+        <v>28.57554352914061</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.1661163474084</v>
+        <v>33.08913168791437</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.16611631341442</v>
+        <v>1.194537346188575</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.1661163349243</v>
+        <v>28.18023310547803</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>28.16611634083927</v>
+        <v>33.46983359111589</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.16611631641335</v>
+        <v>-1.369632225134573</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.16611634019341</v>
+        <v>17.15636451251779</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.16611634673266</v>
+        <v>23.09294874832325</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.16611632537159</v>
+        <v>12.7530879211238</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.16611634618366</v>
+        <v>27.98020801749224</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.16611635190674</v>
+        <v>32.43893669547189</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.16611634557841</v>
+        <v>32.82753196018096</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.16611636861428</v>
+        <v>41.89516968458783</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>28.16611637508756</v>
+        <v>45.70341374190397</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.16611634195661</v>
+        <v>10.29283861568381</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.16611637468973</v>
+        <v>33.07859084776368</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.16611638369097</v>
+        <v>39.37958358576934</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.16611635937358</v>
+        <v>5.169619627366451</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.16611638013215</v>
+        <v>33.49444171168875</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.16611638593881</v>
+        <v>39.68198986081876</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>28.16611636323958</v>
+        <v>3.705748809185511</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.16611638618904</v>
+        <v>23.72638379296558</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.16611639260854</v>
+        <v>30.53806398399133</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.16611637266501</v>
+        <v>19.83890943185419</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.16611639275014</v>
+        <v>36.43243136223592</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.16611639836843</v>
+        <v>41.62231275758937</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>28.16611639148376</v>
+        <v>43.53080834354699</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.16611641373782</v>
+        <v>53.19998686931125</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.16611641999654</v>
+        <v>57.82294305640362</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.16611638651203</v>
+        <v>20.015671377615</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.16611641810182</v>
+        <v>44.5596752190594</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.16611642693823</v>
+        <v>51.86037551532134</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.16611629675284</v>
+        <v>5.830836440577432</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.16611631771245</v>
+        <v>31.11863909051264</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.1661163235167</v>
+        <v>35.09615929814321</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.16611630021009</v>
+        <v>8.164324123224901</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.1661163233818</v>
+        <v>24.31047743965497</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.16611632979865</v>
+        <v>29.21880320964445</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.16611630848107</v>
+        <v>19.73314050378778</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.16611632876072</v>
+        <v>33.20487273542113</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.16611633437667</v>
+        <v>36.71094503374691</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.16611632858435</v>
+        <v>36.58255807773892</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>28.16611635099743</v>
+        <v>43.95574077103102</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.16611635737249</v>
+        <v>47.09958126793713</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.16611632562322</v>
+        <v>16.04071823877737</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.16611635751896</v>
+        <v>35.98759825926985</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.16611636635172</v>
+        <v>41.17635380911739</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.16611633079689</v>
+        <v>6.718450148277821</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.16611635310133</v>
+        <v>34.87440270536726</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.16611635930089</v>
+        <v>40.77236344380703</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.16611633515652</v>
+        <v>4.946893446846115</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.166116359815</v>
+        <v>24.02770856830976</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.16611636666887</v>
+        <v>30.64340935924463</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.16611634468187</v>
+        <v>19.54123526226645</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.16611636626272</v>
+        <v>35.27202884730752</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.16611637226117</v>
+        <v>40.28519281272776</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.16611636556229</v>
+        <v>41.14907906825542</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.16611638949379</v>
+        <v>50.60311022249221</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.16611639630716</v>
+        <v>54.8620357241557</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.16611636128926</v>
+        <v>18.09220645578664</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.16611639523152</v>
+        <v>41.62210418688056</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.16611640466584</v>
+        <v>48.68138900888237</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.16611637638069</v>
+        <v>8.831864923218175</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.16611639789163</v>
+        <v>38.32216430961913</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.16611640397768</v>
+        <v>45.14515249620703</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.1661163814843</v>
+        <v>8.282261454049053</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.16611640526553</v>
+        <v>28.85492221823103</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.16611641199391</v>
+        <v>36.34933583097357</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.16611639144584</v>
+        <v>24.88006815720652</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.16611641225894</v>
+        <v>41.97099147835658</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.16611641814755</v>
+        <v>47.72980227061151</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.16611641086293</v>
+        <v>50.36939026275186</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.16611643397319</v>
+        <v>60.41754480850958</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>28.16611644055682</v>
+        <v>65.48360418130085</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.16611640524761</v>
+        <v>26.33660990322226</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.16611643798235</v>
+        <v>51.63264551660788</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.16611644724393</v>
+        <v>59.70863724385536</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.16611629453166</v>
+        <v>2.053724357666987</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.16611631488261</v>
+        <v>25.66260570410847</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.16611632056088</v>
+        <v>29.56664973653493</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.16611629769047</v>
+        <v>3.868886000878586</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.16611632018929</v>
+        <v>18.54939680895354</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.16611632646686</v>
+        <v>23.33062320293514</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.16611630567031</v>
+        <v>14.57962641775329</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.16611632536106</v>
+        <v>26.8018541626607</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.16611633085511</v>
+        <v>30.22838294975898</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.16611632536954</v>
+        <v>30.14017506257725</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.1661163471489</v>
+        <v>36.8253502072871</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.16611635338963</v>
+        <v>39.96668661123465</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.16611632268865</v>
+        <v>10.94402037807778</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.16611635365815</v>
+        <v>29.1854262723126</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.16611636229918</v>
+        <v>34.25176537867655</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.16611632783622</v>
+        <v>3.874522083576529</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.16611634949762</v>
+        <v>30.24621861052285</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.16611635556189</v>
+        <v>36.05374659355294</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.16611633187221</v>
+        <v>1.77664907508354</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.16611635581979</v>
+        <v>19.28374450106162</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.16611636252409</v>
+        <v>25.76539260229175</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.16611634107268</v>
+        <v>15.40668152486331</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.16611636203136</v>
+        <v>29.80194206400718</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.16611636789889</v>
+        <v>34.72864702365055</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.16611636151717</v>
+        <v>35.49044411143797</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.16611638477794</v>
+        <v>44.18455236162986</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.16611639144696</v>
+        <v>48.42538653265629</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.16611635754965</v>
+        <v>13.80626433284415</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.16611639051336</v>
+        <v>35.49958458624639</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.1661163997418</v>
+        <v>42.42863228794551</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.16611637267723</v>
+        <v>6.349799244492953</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.16611639357015</v>
+        <v>34.05228259379639</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.16611639952068</v>
+        <v>40.74151364942491</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.16611637745001</v>
+        <v>5.484346337416564</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.166116400548</v>
+        <v>24.47345774494751</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.16611640712656</v>
+        <v>31.78888011113627</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.16611638708305</v>
+        <v>21.07545048077428</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.16611640729818</v>
+        <v>36.82087831682733</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.16611641305567</v>
+        <v>42.45457509005827</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.16611640608837</v>
+        <v>44.98026713679945</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.16611642855298</v>
+        <v>54.27131582581897</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.16611643499385</v>
+        <v>59.28526055110407</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.16611640079182</v>
+        <v>22.31768508114524</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.16611643258608</v>
+        <v>45.76412602095172</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.16611644164142</v>
+        <v>53.66045937023957</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.16611628354455</v>
+        <v>0.3910281097708079</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.16611630469554</v>
+        <v>25.88386537918979</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.16611631049183</v>
+        <v>29.52401559936521</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.16611628616167</v>
+        <v>1.853828938337571</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.16611630954498</v>
+        <v>18.42455464046498</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.166116315953</v>
+        <v>22.95541913311704</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.16611629434029</v>
+        <v>13.56526658734787</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.16611631480513</v>
+        <v>27.36587147330194</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.16611632041337</v>
+        <v>30.54710617922286</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.16611631463864</v>
+        <v>30.21051718427726</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>28.16611633723341</v>
+        <v>37.68517691575289</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.166116343584</v>
+        <v>40.58352536974063</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.16611631197962</v>
+        <v>9.106565456216105</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.16611634416661</v>
+        <v>29.51020146492735</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.16611635298722</v>
+        <v>34.26016276008377</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.1661163173056</v>
+        <v>0.9764134976084762</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.16611633980501</v>
+        <v>29.31876841705495</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.16611634601131</v>
+        <v>34.83248098816735</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.16611632084422</v>
+        <v>-1.705902922174477</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.16611634571825</v>
+        <v>17.78164854735176</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.16611635257958</v>
+        <v>23.98964558345268</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.16611633029051</v>
+        <v>13.11390403627329</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.16611635206001</v>
+        <v>29.15568952202441</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.16611635806497</v>
+        <v>33.81170591571772</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.16611635139864</v>
+        <v>34.47023205940403</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.16611637551127</v>
+        <v>43.9838175673333</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.16611638231447</v>
+        <v>47.9600238930029</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.16611634744163</v>
+        <v>10.96180917754662</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.16611638168058</v>
+        <v>34.91707832424208</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.16611639112516</v>
+        <v>41.50046595839294</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.16611636457825</v>
+        <v>3.91863376014885</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.16611638628603</v>
+        <v>33.62075499746852</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.16611639237997</v>
+        <v>40.07157672872135</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.16611636897059</v>
+        <v>2.411014134695193</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.16611639296944</v>
+        <v>23.41885832855264</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.16611639970655</v>
+        <v>30.53118589689261</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.16611637888546</v>
+        <v>19.25904089094391</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.16611639988901</v>
+        <v>36.69091556432487</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.16611640578526</v>
+        <v>42.10699099968079</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.16611639853263</v>
+        <v>44.45225724498219</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.16611642182365</v>
+        <v>54.58135169557864</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.1661164284011</v>
+        <v>59.39579343736886</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.16611639318566</v>
+        <v>19.97059830753236</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.16611642621995</v>
+        <v>45.71949320610669</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.16611643549354</v>
+        <v>53.34058375851148</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.16611628917356</v>
+        <v>-5.120740949988665</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.16611630933895</v>
+        <v>18.10425852396831</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.16611631493173</v>
+        <v>21.79745329995912</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.16611629196942</v>
+        <v>-4.034019981071488</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.1661163142631</v>
+        <v>10.44412802892756</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.16611632044614</v>
+        <v>15.02557219145378</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.16611629981088</v>
+        <v>6.509452628795763</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.16611631932208</v>
+        <v>18.56537364877901</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.16611632473342</v>
+        <v>21.80979165911034</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.16611631939644</v>
+        <v>21.82123172824373</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.16611634097034</v>
+        <v>28.37949297085627</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.16611634710868</v>
+        <v>31.30397166516369</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.16611631692345</v>
+        <v>2.805558508805262</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.16611634761057</v>
+        <v>20.80174768501253</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.1661163561215</v>
+        <v>25.62320697236015</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.16611632204025</v>
+        <v>-3.30854668440416</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.16611634350705</v>
+        <v>22.74114512185925</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.16611634948413</v>
+        <v>28.32657213076913</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.16611632570707</v>
+        <v>-6.117545076100708</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.16611634943951</v>
+        <v>11.25186313825461</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.16611635604743</v>
+        <v>17.54429772519702</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.16611633476091</v>
+        <v>7.361164034238081</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.1661163555313</v>
+        <v>21.65113260412873</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.16611636131449</v>
+        <v>26.39687002619894</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.16611635509236</v>
+        <v>27.18258591354379</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.166116378135</v>
+        <v>35.74335824752508</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.16611638469895</v>
+        <v>39.76232735517407</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.16611635134963</v>
+        <v>5.675206335547415</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.1661163840172</v>
+        <v>27.19185330635968</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.16611639311296</v>
+        <v>33.88238251845382</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.1661163671141</v>
+        <v>0.3747753571181214</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.16611638782332</v>
+        <v>27.76081708188361</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.16611639368946</v>
+        <v>34.20510154811785</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.1661163715551</v>
+        <v>-1.291131942570168</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.16611639445</v>
+        <v>17.5650755109168</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.16611640093527</v>
+        <v>24.67876241571616</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.1661163810474</v>
+        <v>14.17607349126248</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.16611640108479</v>
+        <v>29.82243125241037</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.16611640676063</v>
+        <v>35.25966174419545</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.16611639994845</v>
+        <v>37.65578101719088</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>28.16611642220435</v>
+        <v>46.81545509869787</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.16611642854616</v>
+        <v>51.61807705511984</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.16611639486693</v>
+        <v>15.18605276624158</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.16611642638163</v>
+        <v>38.45632425522235</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>28.16611643530857</v>
+        <v>46.09631802383182</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.16611629443867</v>
+        <v>-0.6140037671743954</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.16611631467993</v>
+        <v>22.72385338708794</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.16611632033582</v>
+        <v>26.65312016073582</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.1661162975879</v>
+        <v>1.013820867468809</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.16611631996545</v>
+        <v>15.44792817379008</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.16611632621827</v>
+        <v>20.26166275878693</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.16611630552229</v>
+        <v>11.56680194843702</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.1661163251069</v>
+        <v>23.5772334799435</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.1661163305793</v>
+        <v>27.0336235203878</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.16611632515719</v>
+        <v>27.06985842481233</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.16611634682267</v>
+        <v>33.64859826930284</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.1661163530385</v>
+        <v>36.81635210276479</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.16611632252067</v>
+        <v>8.116570994725462</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.16611635332325</v>
+        <v>26.07852496598132</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.16611636193021</v>
+        <v>31.1805488381066</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.166116327524</v>
+        <v>0.7220953790632052</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.16611634906884</v>
+        <v>26.81508773502378</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.16611635510922</v>
+        <v>32.66785850191638</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.16611633154232</v>
+        <v>-1.573505752694032</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.16611635536103</v>
+        <v>15.68114913315671</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.16611636203892</v>
+        <v>22.21985314140747</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.16611634069011</v>
+        <v>11.86842306505899</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.166116361536</v>
+        <v>26.04777884071952</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.16611636738042</v>
+        <v>31.0246381480238</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.16611636106501</v>
+        <v>31.87014712751366</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.16611638420422</v>
+        <v>40.45003474498718</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.16611639084669</v>
+        <v>44.72763659447806</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.16611635714957</v>
+        <v>10.42966697859912</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.16611638993589</v>
+        <v>31.83510027585724</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.16611639912797</v>
+        <v>38.82659795344704</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.16611637215981</v>
+        <v>3.433546281953188</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.16611639293959</v>
+        <v>30.86375177172475</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.16611639886631</v>
+        <v>37.58676937102089</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.16611637690941</v>
+        <v>2.368632696090355</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.16611639988233</v>
+        <v>21.11024229044308</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.16611640643456</v>
+        <v>28.47191832386724</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.16611638648723</v>
+        <v>17.77989871745968</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.16611640659289</v>
+        <v>33.31414643637356</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.16611641232734</v>
+        <v>38.98849983819642</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.16611640542685</v>
+        <v>41.58742937583841</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.16611642777298</v>
+        <v>50.76413574813461</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.16611643418789</v>
+        <v>55.80936567529528</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.16611640018722</v>
+        <v>19.16358057081614</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.16611643180931</v>
+        <v>42.327003885806</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>28.16611644082842</v>
+        <v>50.27371502908083</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>28.16611629086587</v>
+        <v>5.286610009132005</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>28.16611631177932</v>
+        <v>29.70821787108008</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>28.16611631757784</v>
+        <v>33.41075252635296</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>28.16611629403962</v>
+        <v>7.405615531365394</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.16611631716031</v>
+        <v>22.92633975513963</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>28.16611632357082</v>
+        <v>27.52947556231887</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>28.16611630221199</v>
+        <v>18.6357689985518</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>28.16611632244699</v>
+        <v>31.58807978921786</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>28.1661163280574</v>
+        <v>34.85073709651523</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>28.16611632241534</v>
+        <v>34.4498665212286</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>28.16611634477855</v>
+        <v>41.42502223187982</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>28.16611635113685</v>
+        <v>44.35957398834454</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>28.16611631967441</v>
+        <v>14.5256863305905</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>28.16611635149991</v>
+        <v>33.72611466872796</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.16611636032394</v>
+        <v>38.58458206515822</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.16611632479481</v>
+        <v>5.349713730248578</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>28.16611634705259</v>
+        <v>32.57449451238762</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>28.16611635324981</v>
+        <v>38.09249074172176</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>28.16611632886854</v>
+        <v>3.367540038111578</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>28.16611635347544</v>
+        <v>21.75257312558502</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.16611636032673</v>
+        <v>27.96880571830936</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>28.16611633829809</v>
+        <v>17.56577922646018</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>28.1661163598338</v>
+        <v>32.72324547273254</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>28.16611636582997</v>
+        <v>37.40938736172983</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>28.16611635928568</v>
+        <v>37.96806480276668</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>28.16611638316339</v>
+        <v>46.91731432697227</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>28.16611638996276</v>
+        <v>50.91112905908498</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.16611635523928</v>
+        <v>15.61097860822894</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>28.16611638911054</v>
+        <v>38.30394610122882</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>28.1661163985413</v>
+        <v>44.92398608310525</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>28.16611637119598</v>
+        <v>8.001798303250855</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>28.16611639266452</v>
+        <v>36.5331618712134</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>28.1661163987456</v>
+        <v>42.9491431310168</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>28.16611637604765</v>
+        <v>7.137215498601412</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>28.16611639978201</v>
+        <v>26.98285292764045</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>28.16611640650489</v>
+        <v>34.0627862059555</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>28.16611638593319</v>
+        <v>23.32868186239285</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>28.16611640670526</v>
+        <v>39.8172501494137</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>28.16611641258906</v>
+        <v>45.23104418140269</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>28.16611640545595</v>
+        <v>47.40681184913424</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>28.16611642851359</v>
+        <v>56.94434171729069</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>28.16611643508261</v>
+        <v>61.72893853252009</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>28.16611640004154</v>
+        <v>24.0697141644569</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>28.16611643271175</v>
+        <v>48.488278619422</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>28.16611644196576</v>
+        <v>56.10214193882751</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>28.16611628659508</v>
+        <v>0.7325318656288289</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.16611630775534</v>
+        <v>26.26798455566566</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>28.16611631356039</v>
+        <v>29.93163483051112</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>28.16611628946773</v>
+        <v>2.279048226999308</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>28.16611631286127</v>
+        <v>18.88979436904074</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.166116319279</v>
+        <v>23.4536241246572</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>28.16611629768351</v>
+        <v>13.96830084519264</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>28.1661163181573</v>
+        <v>27.81071271035729</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>28.16611632377403</v>
+        <v>31.019238402414</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>28.16611631798289</v>
+        <v>30.66203178155917</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>28.16611634058992</v>
+        <v>38.12221116118138</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>28.16611634695375</v>
+        <v>41.04858696890629</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>28.16611631523505</v>
+        <v>9.580383707297674</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>28.16611634743613</v>
+        <v>30.02705293370904</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.1661163562701</v>
+        <v>34.8190108105953</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>28.16611632042547</v>
+        <v>1.533542321060835</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.16611634293587</v>
+        <v>29.91829089526183</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.16611634914818</v>
+        <v>35.45934809961154</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.16611632421373</v>
+        <v>-1.051061975155207</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.16611634909991</v>
+        <v>18.47550662996055</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.16611635596787</v>
+        <v>24.71837069384055</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>28.16611633369586</v>
+        <v>13.72586951878515</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>28.166116355476</v>
+        <v>29.80956863094799</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>28.16611636148676</v>
+        <v>34.49602164216577</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>28.16611635479984</v>
+        <v>35.09777396626736</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>28.16611637892755</v>
+        <v>44.58995339131139</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.1661163857416</v>
+        <v>48.59961151362491</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>28.16611635075049</v>
+        <v>11.59382704113355</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>28.16611638500618</v>
+        <v>35.59258411990871</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>28.16611639445989</v>
+        <v>42.22012558039933</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>28.16611636732261</v>
+        <v>4.13178507014181</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>28.16611638903796</v>
+        <v>33.86016784973724</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>28.16611639513814</v>
+        <v>40.34443235231686</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>28.16611637193368</v>
+        <v>2.692132527999703</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>28.1661163959409</v>
+        <v>23.72195518879171</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>28.16611640268491</v>
+        <v>30.8750385580495</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>28.16611638187606</v>
+        <v>19.48345568269707</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>28.16611640288694</v>
+        <v>36.94197308415303</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>28.16611640878922</v>
+        <v>42.39355355354398</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>28.16611640151541</v>
+        <v>44.67839392557683</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>28.16611642481877</v>
+        <v>54.77660659251352</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>28.16611643140646</v>
+        <v>59.62027355947425</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>28.16611639608727</v>
+        <v>20.21064871637783</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>28.16611642913307</v>
+        <v>45.98435049801117</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>28.16611643841616</v>
+        <v>53.65691121744635</v>
       </c>
     </row>
   </sheetData>
